--- a/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>MOJO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E8" s="3">
         <v>400</v>
       </c>
       <c r="F8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
       </c>
       <c r="H8" s="3">
+        <v>400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>400</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
-      </c>
-      <c r="J8" s="3">
-        <v>400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>300</v>
       </c>
       <c r="L8" s="3">
         <v>400</v>
@@ -767,60 +774,72 @@
         <v>300</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>200</v>
+      </c>
+      <c r="R8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
-        <v>200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>200</v>
-      </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
-        <v>200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>200</v>
-      </c>
       <c r="L9" s="3">
+        <v>200</v>
+      </c>
+      <c r="M9" s="3">
+        <v>200</v>
+      </c>
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
-        <v>200</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
+        <v>200</v>
+      </c>
+      <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -840,16 +859,16 @@
         <v>200</v>
       </c>
       <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>200</v>
+      </c>
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
-        <v>200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
@@ -861,10 +880,16 @@
         <v>100</v>
       </c>
       <c r="P10" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1123,10 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1087,81 +1140,93 @@
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1260,14 +1333,20 @@
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,19 +1389,25 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
@@ -1337,25 +1422,31 @@
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,19 +1539,25 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
@@ -1469,36 +1572,42 @@
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
@@ -1513,25 +1622,31 @@
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,19 +1889,25 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
@@ -1777,25 +1922,31 @@
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,19 +1989,25 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
@@ -1865,74 +2022,86 @@
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,16 +2138,18 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2011,8 +2184,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2076,31 +2261,37 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
+        <v>200</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2111,40 +2302,46 @@
         <v>200</v>
       </c>
       <c r="F44" s="3">
+        <v>200</v>
+      </c>
+      <c r="G44" s="3">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3">
-        <v>200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>200</v>
-      </c>
       <c r="I44" s="3">
         <v>200</v>
       </c>
       <c r="J44" s="3">
+        <v>200</v>
+      </c>
+      <c r="K44" s="3">
+        <v>200</v>
+      </c>
+      <c r="L44" s="3">
         <v>300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>300</v>
       </c>
       <c r="N44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>300</v>
       </c>
       <c r="P44" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>300</v>
+      </c>
+      <c r="R44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2169,46 +2366,52 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
-      </c>
-      <c r="E46" s="3">
-        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
       </c>
       <c r="G46" s="3">
+        <v>400</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
-        <v>400</v>
-      </c>
       <c r="I46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>400</v>
@@ -2217,22 +2420,28 @@
         <v>400</v>
       </c>
       <c r="L46" s="3">
+        <v>400</v>
+      </c>
+      <c r="M46" s="3">
+        <v>400</v>
+      </c>
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2310,17 +2525,23 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,19 +2684,25 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,28 +2784,34 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
-      </c>
-      <c r="E54" s="3">
-        <v>400</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
       </c>
       <c r="G54" s="3">
+        <v>400</v>
+      </c>
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
-        <v>400</v>
-      </c>
       <c r="I54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J54" s="3">
         <v>400</v>
@@ -2569,22 +2820,28 @@
         <v>400</v>
       </c>
       <c r="L54" s="3">
+        <v>400</v>
+      </c>
+      <c r="M54" s="3">
+        <v>400</v>
+      </c>
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,16 +2889,16 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -2646,25 +2907,31 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,43 +2989,49 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2769,34 +3048,40 @@
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,31 +3124,37 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3324,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3033,34 +3348,40 @@
         <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-23300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-23200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-23100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-23000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-22900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-22800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-22700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-22600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-22400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-22400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-21500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-21400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,8 +3794,14 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3438,43 +3809,49 @@
         <v>200</v>
       </c>
       <c r="E76" s="3">
+        <v>200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>200</v>
+      </c>
+      <c r="G76" s="3">
         <v>100</v>
       </c>
-      <c r="F76" s="3">
-        <v>200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>200</v>
-      </c>
       <c r="H76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J76" s="3">
         <v>300</v>
       </c>
       <c r="K76" s="3">
+        <v>300</v>
+      </c>
+      <c r="L76" s="3">
+        <v>300</v>
+      </c>
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,68 +3894,80 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
@@ -3593,25 +3982,31 @@
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3663,17 +4060,23 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>MOJO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -750,10 +754,10 @@
         <v>400</v>
       </c>
       <c r="F8" s="3">
+        <v>400</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>400</v>
       </c>
       <c r="H8" s="3">
         <v>400</v>
@@ -762,34 +766,37 @@
         <v>400</v>
       </c>
       <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
-        <v>200</v>
-      </c>
       <c r="Q8" s="3">
         <v>200</v>
       </c>
       <c r="R8" s="3">
+        <v>200</v>
+      </c>
+      <c r="S8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,11 +807,11 @@
         <v>200</v>
       </c>
       <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
-        <v>200</v>
-      </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
@@ -812,34 +819,37 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
+        <v>200</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
-        <v>200</v>
-      </c>
       <c r="M9" s="3">
         <v>200</v>
       </c>
       <c r="N9" s="3">
+        <v>200</v>
+      </c>
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
-        <v>200</v>
-      </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
       </c>
       <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -865,13 +875,13 @@
         <v>200</v>
       </c>
       <c r="K10" s="3">
+        <v>200</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
-        <v>200</v>
-      </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
@@ -886,10 +896,13 @@
         <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,13 +1151,14 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
@@ -1146,87 +1173,93 @@
         <v>500</v>
       </c>
       <c r="I17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>600</v>
       </c>
       <c r="K17" s="3">
+        <v>600</v>
+      </c>
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
       </c>
       <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
         <v>1300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>600</v>
       </c>
       <c r="R17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1339,14 +1376,17 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,22 +1435,25 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
@@ -1428,25 +1471,28 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,22 +1594,25 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
@@ -1578,39 +1630,42 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
@@ -1628,25 +1683,28 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,22 +1965,25 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
@@ -1928,25 +2001,28 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,22 +2071,25 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
@@ -2028,80 +2107,86 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,19 +2226,20 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2267,31 +2360,34 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>200</v>
-      </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2308,11 +2404,11 @@
         <v>200</v>
       </c>
       <c r="H44" s="3">
+        <v>200</v>
+      </c>
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3">
-        <v>200</v>
-      </c>
       <c r="J44" s="3">
         <v>200</v>
       </c>
@@ -2320,16 +2416,16 @@
         <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>300</v>
       </c>
       <c r="N44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P44" s="3">
         <v>300</v>
@@ -2338,15 +2434,18 @@
         <v>300</v>
       </c>
       <c r="R44" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="S44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2372,26 +2471,29 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2399,22 +2501,22 @@
         <v>400</v>
       </c>
       <c r="E46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>300</v>
       </c>
       <c r="G46" s="3">
+        <v>300</v>
+      </c>
+      <c r="H46" s="3">
         <v>400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>300</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
       </c>
       <c r="J46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>400</v>
@@ -2426,22 +2528,25 @@
         <v>400</v>
       </c>
       <c r="N46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O46" s="3">
         <v>500</v>
       </c>
       <c r="P46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q46" s="3">
         <v>400</v>
       </c>
       <c r="R46" s="3">
+        <v>400</v>
+      </c>
+      <c r="S46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2531,17 +2639,20 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2704,8 +2824,8 @@
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2799,22 +2925,22 @@
         <v>400</v>
       </c>
       <c r="E54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
       </c>
       <c r="G54" s="3">
+        <v>300</v>
+      </c>
+      <c r="H54" s="3">
         <v>400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>300</v>
       </c>
       <c r="I54" s="3">
         <v>300</v>
       </c>
       <c r="J54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K54" s="3">
         <v>400</v>
@@ -2826,22 +2952,25 @@
         <v>400</v>
       </c>
       <c r="N54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>500</v>
       </c>
       <c r="P54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q54" s="3">
         <v>400</v>
       </c>
       <c r="R54" s="3">
+        <v>400</v>
+      </c>
+      <c r="S54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2895,13 +3026,13 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -2913,48 +3044,51 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2995,11 +3132,11 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
@@ -3009,12 +3146,12 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
@@ -3022,16 +3159,19 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3054,7 +3194,7 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -3063,25 +3203,28 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
       </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,16 +3273,19 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
@@ -3156,8 +3302,8 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3354,7 +3512,7 @@
         <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
@@ -3363,25 +3521,28 @@
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
       </c>
       <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
         <v>100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="R66" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3609,49 +3783,52 @@
         <v>-23400</v>
       </c>
       <c r="E72" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="F72" s="3">
         <v>-23300</v>
       </c>
       <c r="G72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-23200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-22600</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-22400</v>
       </c>
       <c r="O72" s="3">
         <v>-22400</v>
       </c>
       <c r="P72" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-21400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3815,16 +4001,16 @@
         <v>200</v>
       </c>
       <c r="G76" s="3">
+        <v>200</v>
+      </c>
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
-        <v>200</v>
-      </c>
       <c r="I76" s="3">
         <v>200</v>
       </c>
       <c r="J76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K76" s="3">
         <v>300</v>
@@ -3833,25 +4019,28 @@
         <v>300</v>
       </c>
       <c r="M76" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N76" s="3">
         <v>400</v>
       </c>
       <c r="O76" s="3">
+        <v>400</v>
+      </c>
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
-        <v>-100</v>
-      </c>
       <c r="R76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,77 +4089,83 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
@@ -3988,25 +4183,28 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4066,17 +4265,20 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,20 +4539,23 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4924,11 +5176,11 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>MOJO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,90 +665,94 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
         <v>400</v>
@@ -757,10 +761,10 @@
         <v>400</v>
       </c>
       <c r="G8" s="3">
+        <v>400</v>
+      </c>
+      <c r="H8" s="3">
         <v>500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>400</v>
@@ -769,39 +773,42 @@
         <v>400</v>
       </c>
       <c r="K8" s="3">
+        <v>400</v>
+      </c>
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
-        <v>200</v>
-      </c>
       <c r="R8" s="3">
         <v>200</v>
       </c>
       <c r="S8" s="3">
+        <v>200</v>
+      </c>
+      <c r="T8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -810,11 +817,11 @@
         <v>200</v>
       </c>
       <c r="G9" s="3">
+        <v>200</v>
+      </c>
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
-        <v>200</v>
-      </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
@@ -822,39 +829,42 @@
         <v>200</v>
       </c>
       <c r="K9" s="3">
+        <v>200</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
-        <v>200</v>
-      </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
       <c r="O9" s="3">
+        <v>200</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
-        <v>200</v>
-      </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
       <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
@@ -878,13 +888,13 @@
         <v>200</v>
       </c>
       <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
-        <v>200</v>
-      </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
@@ -899,10 +909,13 @@
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,16 +1178,17 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>500</v>
@@ -1176,90 +1203,96 @@
         <v>500</v>
       </c>
       <c r="J17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>500</v>
       </c>
       <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>600</v>
       </c>
       <c r="S17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1379,14 +1416,17 @@
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,16 +1490,16 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
@@ -1474,25 +1517,28 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
@@ -1633,25 +1685,28 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,16 +1714,16 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
@@ -1686,25 +1741,28 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
@@ -2004,25 +2077,28 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,16 +2162,16 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
@@ -2110,83 +2189,89 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2236,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,13 +2423,16 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2363,31 +2456,34 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>200</v>
-      </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2407,11 +2503,11 @@
         <v>200</v>
       </c>
       <c r="I44" s="3">
+        <v>200</v>
+      </c>
+      <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3">
-        <v>200</v>
-      </c>
       <c r="K44" s="3">
         <v>200</v>
       </c>
@@ -2419,16 +2515,16 @@
         <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N44" s="3">
         <v>300</v>
       </c>
       <c r="O44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="3">
         <v>300</v>
@@ -2437,19 +2533,22 @@
         <v>300</v>
       </c>
       <c r="S44" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="T44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
@@ -2474,52 +2573,55 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E46" s="3">
         <v>400</v>
       </c>
       <c r="F46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G46" s="3">
         <v>300</v>
       </c>
       <c r="H46" s="3">
+        <v>300</v>
+      </c>
+      <c r="I46" s="3">
         <v>400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>400</v>
@@ -2531,22 +2633,25 @@
         <v>400</v>
       </c>
       <c r="O46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P46" s="3">
         <v>500</v>
       </c>
       <c r="Q46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R46" s="3">
         <v>400</v>
       </c>
       <c r="S46" s="3">
+        <v>400</v>
+      </c>
+      <c r="T46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2642,17 +2750,20 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
-      </c>
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2827,8 +2947,8 @@
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,34 +3039,37 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E54" s="3">
         <v>400</v>
       </c>
       <c r="F54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>300</v>
       </c>
       <c r="H54" s="3">
+        <v>300</v>
+      </c>
+      <c r="I54" s="3">
         <v>400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>300</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
       </c>
       <c r="K54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L54" s="3">
         <v>400</v>
@@ -2955,22 +3081,25 @@
         <v>400</v>
       </c>
       <c r="O54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>500</v>
       </c>
       <c r="Q54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R54" s="3">
         <v>400</v>
       </c>
       <c r="S54" s="3">
+        <v>400</v>
+      </c>
+      <c r="T54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3029,13 +3160,13 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -3047,33 +3178,36 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -3090,8 +3224,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3135,11 +3272,11 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
@@ -3149,12 +3286,12 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
@@ -3162,16 +3299,19 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3197,7 +3337,7 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -3206,25 +3346,28 @@
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
       </c>
       <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,19 +3419,22 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
@@ -3305,8 +3451,8 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3515,7 +3673,7 @@
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
@@ -3524,25 +3682,28 @@
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
       </c>
       <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3786,49 +3960,52 @@
         <v>-23400</v>
       </c>
       <c r="F72" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="G72" s="3">
         <v>-23300</v>
       </c>
       <c r="H72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="I72" s="3">
         <v>-23200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-22700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-22600</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-22400</v>
       </c>
       <c r="P72" s="3">
         <v>-22400</v>
       </c>
       <c r="Q72" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="R72" s="3">
         <v>-21500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,13 +4169,16 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E76" s="3">
         <v>200</v>
@@ -4004,16 +4190,16 @@
         <v>200</v>
       </c>
       <c r="H76" s="3">
+        <v>200</v>
+      </c>
+      <c r="I76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
-        <v>200</v>
-      </c>
       <c r="J76" s="3">
         <v>200</v>
       </c>
       <c r="K76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L76" s="3">
         <v>300</v>
@@ -4022,25 +4208,28 @@
         <v>300</v>
       </c>
       <c r="N76" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O76" s="3">
         <v>400</v>
       </c>
       <c r="P76" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
-        <v>-100</v>
-      </c>
       <c r="S76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,16 +4354,16 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
@@ -4186,25 +4381,28 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4268,17 +4467,20 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,23 +4756,26 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5179,11 +5431,11 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>MOJO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
-      </c>
-      <c r="E8" s="3">
-        <v>400</v>
       </c>
       <c r="F8" s="3">
         <v>400</v>
@@ -764,10 +767,10 @@
         <v>400</v>
       </c>
       <c r="H8" s="3">
+        <v>400</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>400</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
@@ -776,43 +779,46 @@
         <v>400</v>
       </c>
       <c r="L8" s="3">
+        <v>400</v>
+      </c>
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
-        <v>200</v>
-      </c>
       <c r="S8" s="3">
         <v>200</v>
       </c>
       <c r="T8" s="3">
+        <v>200</v>
+      </c>
+      <c r="U8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
-        <v>200</v>
-      </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
@@ -820,11 +826,11 @@
         <v>200</v>
       </c>
       <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
-        <v>200</v>
-      </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
@@ -832,43 +838,46 @@
         <v>200</v>
       </c>
       <c r="L9" s="3">
+        <v>200</v>
+      </c>
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
-        <v>200</v>
-      </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
       <c r="P9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
-        <v>200</v>
-      </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
       </c>
       <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
-        <v>200</v>
-      </c>
       <c r="F10" s="3">
         <v>200</v>
       </c>
@@ -891,13 +900,13 @@
         <v>200</v>
       </c>
       <c r="M10" s="3">
+        <v>200</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
-        <v>200</v>
-      </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
@@ -912,10 +921,13 @@
         <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,19 +1204,20 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>500</v>
@@ -1206,93 +1232,99 @@
         <v>500</v>
       </c>
       <c r="K17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
       </c>
       <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
       </c>
       <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
         <v>1300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>600</v>
       </c>
       <c r="T17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1419,14 +1455,17 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,28 +1520,31 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1520,30 +1562,33 @@
         <v>-100</v>
       </c>
       <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,28 +1697,31 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1688,45 +1739,48 @@
         <v>-100</v>
       </c>
       <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1744,25 +1798,28 @@
         <v>-100</v>
       </c>
       <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,28 +2110,31 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -2080,25 +2152,28 @@
         <v>-100</v>
       </c>
       <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,28 +2228,31 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -2192,86 +2270,92 @@
         <v>-100</v>
       </c>
       <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,25 +2399,26 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,16 +2515,19 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2459,31 +2551,34 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3">
-        <v>200</v>
-      </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2506,11 +2601,11 @@
         <v>200</v>
       </c>
       <c r="J44" s="3">
+        <v>200</v>
+      </c>
+      <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3">
-        <v>200</v>
-      </c>
       <c r="L44" s="3">
         <v>200</v>
       </c>
@@ -2518,16 +2613,16 @@
         <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>300</v>
       </c>
       <c r="P44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R44" s="3">
         <v>300</v>
@@ -2536,10 +2631,13 @@
         <v>300</v>
       </c>
       <c r="T44" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="U44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2547,11 +2645,11 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -2576,55 +2674,58 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
-      </c>
-      <c r="E46" s="3">
-        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>400</v>
       </c>
       <c r="G46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
       </c>
       <c r="I46" s="3">
+        <v>300</v>
+      </c>
+      <c r="J46" s="3">
         <v>400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
       </c>
       <c r="L46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>400</v>
@@ -2636,22 +2737,25 @@
         <v>400</v>
       </c>
       <c r="P46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>500</v>
       </c>
       <c r="R46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S46" s="3">
         <v>400</v>
       </c>
       <c r="T46" s="3">
+        <v>400</v>
+      </c>
+      <c r="U46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2753,17 +2860,20 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2950,8 +3069,8 @@
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,37 +3164,40 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>400</v>
       </c>
       <c r="F54" s="3">
         <v>400</v>
       </c>
       <c r="G54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H54" s="3">
         <v>300</v>
       </c>
       <c r="I54" s="3">
+        <v>300</v>
+      </c>
+      <c r="J54" s="3">
         <v>400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>300</v>
       </c>
       <c r="K54" s="3">
         <v>300</v>
       </c>
       <c r="L54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M54" s="3">
         <v>400</v>
@@ -3084,22 +3209,25 @@
         <v>400</v>
       </c>
       <c r="P54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q54" s="3">
         <v>500</v>
       </c>
       <c r="R54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S54" s="3">
         <v>400</v>
       </c>
       <c r="T54" s="3">
+        <v>400</v>
+      </c>
+      <c r="U54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3163,13 +3293,13 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -3181,25 +3311,28 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3209,8 +3342,8 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -3227,8 +3360,8 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3254,13 +3387,16 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -3275,11 +3411,11 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
@@ -3289,11 +3425,11 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3302,21 +3438,24 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -3340,7 +3479,7 @@
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
@@ -3349,25 +3488,28 @@
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
       </c>
       <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3433,11 +3578,11 @@
       <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
@@ -3454,8 +3599,8 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,13 +3800,16 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -3676,7 +3833,7 @@
         <v>200</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
@@ -3685,25 +3842,28 @@
         <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
       </c>
       <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
         <v>100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4118,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3963,49 +4136,52 @@
         <v>-23400</v>
       </c>
       <c r="G72" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="H72" s="3">
         <v>-23300</v>
       </c>
       <c r="I72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-23200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-22800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-22700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22600</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-22400</v>
       </c>
       <c r="Q72" s="3">
         <v>-22400</v>
       </c>
       <c r="R72" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="S72" s="3">
         <v>-21500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,17 +4354,20 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200</v>
+      </c>
+      <c r="E76" s="3">
         <v>300</v>
       </c>
-      <c r="E76" s="3">
-        <v>200</v>
-      </c>
       <c r="F76" s="3">
         <v>200</v>
       </c>
@@ -4193,16 +4378,16 @@
         <v>200</v>
       </c>
       <c r="I76" s="3">
+        <v>200</v>
+      </c>
+      <c r="J76" s="3">
         <v>100</v>
       </c>
-      <c r="J76" s="3">
-        <v>200</v>
-      </c>
       <c r="K76" s="3">
         <v>200</v>
       </c>
       <c r="L76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M76" s="3">
         <v>300</v>
@@ -4211,25 +4396,28 @@
         <v>300</v>
       </c>
       <c r="O76" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P76" s="3">
         <v>400</v>
       </c>
       <c r="Q76" s="3">
+        <v>400</v>
+      </c>
+      <c r="R76" s="3">
         <v>300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
-        <v>-100</v>
-      </c>
       <c r="T76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,89 +4472,95 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -4384,25 +4578,28 @@
         <v>-100</v>
       </c>
       <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4470,17 +4668,20 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,17 +4984,17 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5434,11 +5685,11 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>MOJO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,107 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>400</v>
       </c>
       <c r="G8" s="3">
         <v>400</v>
@@ -770,10 +774,10 @@
         <v>400</v>
       </c>
       <c r="I8" s="3">
+        <v>400</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>400</v>
       </c>
       <c r="K8" s="3">
         <v>400</v>
@@ -782,34 +786,37 @@
         <v>400</v>
       </c>
       <c r="M8" s="3">
+        <v>400</v>
+      </c>
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
-        <v>200</v>
-      </c>
       <c r="T8" s="3">
         <v>200</v>
       </c>
       <c r="U8" s="3">
+        <v>200</v>
+      </c>
+      <c r="V8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,11 +824,11 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
-        <v>200</v>
-      </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
@@ -829,11 +836,11 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
-        <v>200</v>
-      </c>
       <c r="K9" s="3">
         <v>200</v>
       </c>
@@ -841,46 +848,49 @@
         <v>200</v>
       </c>
       <c r="M9" s="3">
+        <v>200</v>
+      </c>
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
-        <v>200</v>
-      </c>
       <c r="P9" s="3">
         <v>200</v>
       </c>
       <c r="Q9" s="3">
+        <v>200</v>
+      </c>
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
-        <v>200</v>
-      </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
       </c>
       <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
-        <v>200</v>
-      </c>
       <c r="G10" s="3">
         <v>200</v>
       </c>
@@ -903,13 +913,13 @@
         <v>200</v>
       </c>
       <c r="N10" s="3">
+        <v>200</v>
+      </c>
+      <c r="O10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3">
-        <v>200</v>
-      </c>
       <c r="P10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="3">
         <v>100</v>
@@ -924,10 +934,13 @@
         <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1214,13 +1241,13 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
@@ -1235,96 +1262,102 @@
         <v>500</v>
       </c>
       <c r="L17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>500</v>
       </c>
       <c r="Q17" s="3">
         <v>500</v>
       </c>
       <c r="R17" s="3">
+        <v>500</v>
+      </c>
+      <c r="S17" s="3">
         <v>1300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
-      </c>
-      <c r="T17" s="3">
-        <v>600</v>
       </c>
       <c r="U17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1458,14 +1495,17 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,31 +1563,34 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1565,33 +1608,36 @@
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
-        <v>-100</v>
-      </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,31 +1749,34 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1742,48 +1794,51 @@
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
-        <v>-100</v>
-      </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1801,25 +1856,28 @@
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
-        <v>-100</v>
-      </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,31 +2183,34 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -2155,25 +2228,28 @@
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
-        <v>-100</v>
-      </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,31 +2307,34 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -2273,89 +2352,95 @@
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
-        <v>-100</v>
-      </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,28 +2486,29 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2527,10 +2620,10 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2554,36 +2647,39 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3">
-        <v>200</v>
-      </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
         <v>200</v>
@@ -2604,11 +2700,11 @@
         <v>200</v>
       </c>
       <c r="K44" s="3">
+        <v>200</v>
+      </c>
+      <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3">
-        <v>200</v>
-      </c>
       <c r="M44" s="3">
         <v>200</v>
       </c>
@@ -2616,16 +2712,16 @@
         <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P44" s="3">
         <v>300</v>
       </c>
       <c r="Q44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S44" s="3">
         <v>300</v>
@@ -2634,25 +2730,28 @@
         <v>300</v>
       </c>
       <c r="U44" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="V44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2677,58 +2776,61 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
-      </c>
-      <c r="F46" s="3">
-        <v>400</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
       </c>
       <c r="H46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I46" s="3">
         <v>300</v>
       </c>
       <c r="J46" s="3">
+        <v>300</v>
+      </c>
+      <c r="K46" s="3">
         <v>400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>400</v>
@@ -2740,22 +2842,25 @@
         <v>400</v>
       </c>
       <c r="Q46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R46" s="3">
         <v>500</v>
       </c>
       <c r="S46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T46" s="3">
         <v>400</v>
       </c>
       <c r="U46" s="3">
+        <v>400</v>
+      </c>
+      <c r="V46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2863,17 +2971,20 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3072,8 +3192,8 @@
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,40 +3290,43 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>400</v>
       </c>
       <c r="H54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I54" s="3">
         <v>300</v>
       </c>
       <c r="J54" s="3">
+        <v>300</v>
+      </c>
+      <c r="K54" s="3">
         <v>400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>300</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
       </c>
       <c r="M54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N54" s="3">
         <v>400</v>
@@ -3212,22 +3338,25 @@
         <v>400</v>
       </c>
       <c r="Q54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R54" s="3">
         <v>500</v>
       </c>
       <c r="S54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="T54" s="3">
         <v>400</v>
       </c>
       <c r="U54" s="3">
+        <v>400</v>
+      </c>
+      <c r="V54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3296,13 +3427,13 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -3314,25 +3445,28 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3345,8 +3479,8 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -3363,8 +3497,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3390,16 +3524,19 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -3414,11 +3551,11 @@
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
@@ -3428,11 +3565,11 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3441,16 +3578,19 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3458,7 +3598,7 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -3482,7 +3622,7 @@
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
@@ -3491,25 +3631,28 @@
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
       </c>
       <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3581,11 +3727,11 @@
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -3602,8 +3748,8 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,8 +3958,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3812,7 +3970,7 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
@@ -3836,7 +3994,7 @@
         <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
@@ -3845,25 +4003,28 @@
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
       </c>
       <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
         <v>100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="U66" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,8 +4292,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4139,49 +4313,52 @@
         <v>-23400</v>
       </c>
       <c r="H72" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="I72" s="3">
         <v>-23300</v>
       </c>
       <c r="J72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-23200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-22900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-22800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-22600</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-22400</v>
       </c>
       <c r="R72" s="3">
         <v>-22400</v>
       </c>
       <c r="S72" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="T72" s="3">
         <v>-21500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-21400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,20 +4540,23 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E76" s="3">
+        <v>200</v>
+      </c>
+      <c r="F76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
-        <v>200</v>
-      </c>
       <c r="G76" s="3">
         <v>200</v>
       </c>
@@ -4381,16 +4567,16 @@
         <v>200</v>
       </c>
       <c r="J76" s="3">
+        <v>200</v>
+      </c>
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3">
-        <v>200</v>
-      </c>
       <c r="L76" s="3">
         <v>200</v>
       </c>
       <c r="M76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N76" s="3">
         <v>300</v>
@@ -4399,25 +4585,28 @@
         <v>300</v>
       </c>
       <c r="P76" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q76" s="3">
         <v>400</v>
       </c>
       <c r="R76" s="3">
+        <v>400</v>
+      </c>
+      <c r="S76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
-        <v>-100</v>
-      </c>
       <c r="U76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,95 +4664,101 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -4581,25 +4776,28 @@
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
-        <v>-100</v>
-      </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4671,17 +4870,20 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4987,17 +5204,17 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,13 +5795,16 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5688,11 +5940,11 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>MOJO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,114 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>400</v>
       </c>
       <c r="H8" s="3">
         <v>400</v>
@@ -777,10 +781,10 @@
         <v>400</v>
       </c>
       <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
         <v>500</v>
-      </c>
-      <c r="K8" s="3">
-        <v>400</v>
       </c>
       <c r="L8" s="3">
         <v>400</v>
@@ -789,49 +793,52 @@
         <v>400</v>
       </c>
       <c r="N8" s="3">
+        <v>400</v>
+      </c>
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
-        <v>200</v>
-      </c>
       <c r="U8" s="3">
         <v>200</v>
       </c>
       <c r="V8" s="3">
+        <v>200</v>
+      </c>
+      <c r="W8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
       </c>
       <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
-        <v>200</v>
-      </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
@@ -839,11 +846,11 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
+        <v>200</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
-        <v>200</v>
-      </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
@@ -851,49 +858,52 @@
         <v>200</v>
       </c>
       <c r="N9" s="3">
+        <v>200</v>
+      </c>
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
-        <v>200</v>
-      </c>
       <c r="Q9" s="3">
         <v>200</v>
       </c>
       <c r="R9" s="3">
+        <v>200</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
-        <v>200</v>
-      </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
       </c>
       <c r="V9" s="3">
+        <v>100</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
-        <v>200</v>
-      </c>
       <c r="H10" s="3">
         <v>200</v>
       </c>
@@ -916,13 +926,13 @@
         <v>200</v>
       </c>
       <c r="O10" s="3">
+        <v>200</v>
+      </c>
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
-        <v>200</v>
-      </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
@@ -937,10 +947,13 @@
         <v>100</v>
       </c>
       <c r="V10" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,25 +1258,26 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
       </c>
       <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
@@ -1265,99 +1292,105 @@
         <v>500</v>
       </c>
       <c r="M17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>500</v>
       </c>
       <c r="R17" s="3">
         <v>500</v>
       </c>
       <c r="S17" s="3">
+        <v>500</v>
+      </c>
+      <c r="T17" s="3">
         <v>1300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
-      </c>
-      <c r="U17" s="3">
-        <v>600</v>
       </c>
       <c r="V17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1498,14 +1535,17 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,34 +1606,37 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1611,25 +1654,28 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="T23" s="3">
-        <v>-100</v>
-      </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1639,8 +1685,8 @@
       <c r="E24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,34 +1801,37 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -1797,51 +1849,54 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="T26" s="3">
-        <v>-100</v>
-      </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -1859,25 +1914,28 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="T27" s="3">
-        <v>-100</v>
-      </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,34 +2256,37 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -2231,25 +2304,28 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="T33" s="3">
-        <v>-100</v>
-      </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,34 +2386,37 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -2355,92 +2434,98 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="T35" s="3">
-        <v>-100</v>
-      </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2496,22 +2583,22 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2549,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,22 +2701,25 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2650,31 +2743,34 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2682,7 +2778,7 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
@@ -2703,10 +2799,10 @@
         <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
@@ -2715,16 +2811,16 @@
         <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="3">
         <v>300</v>
       </c>
       <c r="R44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T44" s="3">
         <v>300</v>
@@ -2733,27 +2829,30 @@
         <v>300</v>
       </c>
       <c r="V44" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="W44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2779,61 +2878,64 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
-      </c>
-      <c r="G46" s="3">
-        <v>400</v>
       </c>
       <c r="H46" s="3">
         <v>400</v>
       </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
+        <v>300</v>
+      </c>
+      <c r="L46" s="3">
         <v>400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
       </c>
       <c r="N46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>400</v>
@@ -2845,22 +2947,25 @@
         <v>400</v>
       </c>
       <c r="R46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S46" s="3">
         <v>500</v>
       </c>
       <c r="T46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U46" s="3">
         <v>400</v>
       </c>
       <c r="V46" s="3">
+        <v>400</v>
+      </c>
+      <c r="W46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2974,17 +3082,20 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,34 +3286,37 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,43 +3416,46 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>400</v>
       </c>
       <c r="H54" s="3">
         <v>400</v>
       </c>
       <c r="I54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
       </c>
       <c r="K54" s="3">
+        <v>300</v>
+      </c>
+      <c r="L54" s="3">
         <v>400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>300</v>
       </c>
       <c r="M54" s="3">
         <v>300</v>
       </c>
       <c r="N54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>400</v>
@@ -3341,22 +3467,25 @@
         <v>400</v>
       </c>
       <c r="R54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S54" s="3">
         <v>500</v>
       </c>
       <c r="T54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="U54" s="3">
         <v>400</v>
       </c>
       <c r="V54" s="3">
+        <v>400</v>
+      </c>
+      <c r="W54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,13 +3533,14 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3430,13 +3561,13 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3448,25 +3579,28 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3482,8 +3616,8 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -3500,8 +3634,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3527,19 +3661,22 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -3554,10 +3691,10 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3568,11 +3705,11 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3581,27 +3718,30 @@
         <v>0</v>
       </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -3625,7 +3765,7 @@
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
@@ -3634,25 +3774,28 @@
         <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="V60" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3730,11 +3876,11 @@
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -3751,8 +3897,8 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,19 +4116,22 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
@@ -3997,7 +4155,7 @@
         <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
@@ -4006,25 +4164,28 @@
         <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R66" s="3">
         <v>0</v>
       </c>
       <c r="S66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T66" s="3">
+        <v>100</v>
+      </c>
+      <c r="U66" s="3">
         <v>700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="V66" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,13 +4466,16 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-23400</v>
+        <v>-23300</v>
       </c>
       <c r="E72" s="3">
         <v>-23400</v>
@@ -4316,49 +4490,52 @@
         <v>-23400</v>
       </c>
       <c r="I72" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="J72" s="3">
         <v>-23300</v>
       </c>
       <c r="K72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-23200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-22900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-22700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-22600</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-22400</v>
       </c>
       <c r="S72" s="3">
         <v>-22400</v>
       </c>
       <c r="T72" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="U72" s="3">
         <v>-21500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-21400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,23 +4726,26 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>500</v>
+      </c>
+      <c r="E76" s="3">
         <v>300</v>
       </c>
-      <c r="E76" s="3">
-        <v>200</v>
-      </c>
       <c r="F76" s="3">
+        <v>200</v>
+      </c>
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
-        <v>200</v>
-      </c>
       <c r="H76" s="3">
         <v>200</v>
       </c>
@@ -4570,16 +4756,16 @@
         <v>200</v>
       </c>
       <c r="K76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M76" s="3">
         <v>200</v>
       </c>
       <c r="N76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O76" s="3">
         <v>300</v>
@@ -4588,25 +4774,28 @@
         <v>300</v>
       </c>
       <c r="Q76" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="R76" s="3">
         <v>400</v>
       </c>
       <c r="S76" s="3">
+        <v>400</v>
+      </c>
+      <c r="T76" s="3">
         <v>300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="U76" s="3">
-        <v>-100</v>
-      </c>
       <c r="V76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,101 +4856,107 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -4779,25 +4974,28 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="T81" s="3">
-        <v>-100</v>
-      </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4873,17 +5072,20 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5207,16 +5424,16 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,16 +6041,19 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5943,10 +6195,10 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>MOJO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,121 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>400</v>
       </c>
       <c r="I8" s="3">
         <v>400</v>
@@ -784,10 +788,10 @@
         <v>400</v>
       </c>
       <c r="K8" s="3">
+        <v>400</v>
+      </c>
+      <c r="L8" s="3">
         <v>500</v>
-      </c>
-      <c r="L8" s="3">
-        <v>400</v>
       </c>
       <c r="M8" s="3">
         <v>400</v>
@@ -796,34 +800,37 @@
         <v>400</v>
       </c>
       <c r="O8" s="3">
+        <v>400</v>
+      </c>
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
-        <v>200</v>
-      </c>
       <c r="V8" s="3">
         <v>200</v>
       </c>
       <c r="W8" s="3">
+        <v>200</v>
+      </c>
+      <c r="X8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -831,17 +838,17 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
       <c r="G9" s="3">
+        <v>200</v>
+      </c>
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
-        <v>200</v>
-      </c>
       <c r="I9" s="3">
         <v>200</v>
       </c>
@@ -849,11 +856,11 @@
         <v>200</v>
       </c>
       <c r="K9" s="3">
+        <v>200</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
-        <v>200</v>
-      </c>
       <c r="M9" s="3">
         <v>200</v>
       </c>
@@ -861,52 +868,55 @@
         <v>200</v>
       </c>
       <c r="O9" s="3">
+        <v>200</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
-        <v>200</v>
-      </c>
       <c r="R9" s="3">
         <v>200</v>
       </c>
       <c r="S9" s="3">
+        <v>200</v>
+      </c>
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
-        <v>200</v>
-      </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
       </c>
       <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
-        <v>200</v>
-      </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
-        <v>200</v>
-      </c>
       <c r="I10" s="3">
         <v>200</v>
       </c>
@@ -929,13 +939,13 @@
         <v>200</v>
       </c>
       <c r="P10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
-        <v>200</v>
-      </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S10" s="3">
         <v>100</v>
@@ -950,10 +960,13 @@
         <v>100</v>
       </c>
       <c r="W10" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1285,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1268,19 +1295,19 @@
         <v>500</v>
       </c>
       <c r="E17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
       </c>
       <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
@@ -1295,102 +1322,108 @@
         <v>500</v>
       </c>
       <c r="N17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>600</v>
       </c>
       <c r="P17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>500</v>
       </c>
       <c r="S17" s="3">
         <v>500</v>
       </c>
       <c r="T17" s="3">
+        <v>500</v>
+      </c>
+      <c r="U17" s="3">
         <v>1300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
-      </c>
-      <c r="V17" s="3">
-        <v>600</v>
       </c>
       <c r="W17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>-100</v>
-      </c>
       <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1538,14 +1575,17 @@
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,37 +1649,40 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
@@ -1657,25 +1700,28 @@
         <v>-100</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
-      <c r="U23" s="3">
-        <v>-100</v>
-      </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1688,8 +1734,8 @@
       <c r="F24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,37 +1853,40 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
@@ -1852,54 +1904,57 @@
         <v>-100</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
-      <c r="U26" s="3">
-        <v>-100</v>
-      </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
@@ -1917,25 +1972,28 @@
         <v>-100</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
-      <c r="U27" s="3">
-        <v>-100</v>
-      </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,37 +2329,40 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
@@ -2307,25 +2380,28 @@
         <v>-100</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
-      <c r="U33" s="3">
-        <v>-100</v>
-      </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,37 +2465,40 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
@@ -2437,95 +2516,101 @@
         <v>-100</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
-      <c r="U35" s="3">
-        <v>-100</v>
-      </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2586,22 +2673,22 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,25 +2794,28 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2746,31 +2839,34 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2781,7 +2877,7 @@
         <v>300</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
@@ -2802,10 +2898,10 @@
         <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
@@ -2814,16 +2910,16 @@
         <v>200</v>
       </c>
       <c r="Q44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R44" s="3">
         <v>300</v>
       </c>
       <c r="S44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U44" s="3">
         <v>300</v>
@@ -2832,10 +2928,13 @@
         <v>300</v>
       </c>
       <c r="W44" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="X44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,19 +2942,19 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2881,26 +2980,29 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2908,37 +3010,37 @@
         <v>600</v>
       </c>
       <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
-      </c>
-      <c r="H46" s="3">
-        <v>400</v>
       </c>
       <c r="I46" s="3">
         <v>400</v>
       </c>
       <c r="J46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
       </c>
       <c r="L46" s="3">
+        <v>300</v>
+      </c>
+      <c r="M46" s="3">
         <v>400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
       </c>
       <c r="O46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P46" s="3">
         <v>400</v>
@@ -2950,22 +3052,25 @@
         <v>400</v>
       </c>
       <c r="S46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T46" s="3">
         <v>500</v>
       </c>
       <c r="U46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V46" s="3">
         <v>400</v>
       </c>
       <c r="W46" s="3">
+        <v>400</v>
+      </c>
+      <c r="X46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3085,17 +3193,20 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3315,11 +3435,11 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3428,37 +3554,37 @@
         <v>600</v>
       </c>
       <c r="E54" s="3">
+        <v>600</v>
+      </c>
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>400</v>
       </c>
       <c r="I54" s="3">
         <v>400</v>
       </c>
       <c r="J54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K54" s="3">
         <v>300</v>
       </c>
       <c r="L54" s="3">
+        <v>300</v>
+      </c>
+      <c r="M54" s="3">
         <v>400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>300</v>
       </c>
       <c r="N54" s="3">
         <v>300</v>
       </c>
       <c r="O54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P54" s="3">
         <v>400</v>
@@ -3470,22 +3596,25 @@
         <v>400</v>
       </c>
       <c r="S54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T54" s="3">
         <v>500</v>
       </c>
       <c r="U54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V54" s="3">
         <v>400</v>
       </c>
       <c r="W54" s="3">
+        <v>400</v>
+      </c>
+      <c r="X54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,7 +3674,7 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3564,13 +3695,13 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
@@ -3582,25 +3713,28 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3619,8 +3753,8 @@
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -3637,8 +3771,8 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3675,11 +3812,11 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -3694,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3708,11 +3845,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3721,16 +3858,19 @@
         <v>0</v>
       </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-      <c r="W59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3738,13 +3878,13 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -3768,7 +3908,7 @@
         <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -3777,25 +3917,28 @@
         <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3879,11 +4025,11 @@
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -3900,8 +4046,8 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4128,13 +4286,13 @@
         <v>200</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
@@ -4158,7 +4316,7 @@
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -4167,25 +4325,28 @@
         <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S66" s="3">
         <v>0</v>
       </c>
       <c r="T66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U66" s="3">
+        <v>100</v>
+      </c>
+      <c r="V66" s="3">
         <v>700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>500</v>
       </c>
-      <c r="W66" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4478,7 +4652,7 @@
         <v>-23300</v>
       </c>
       <c r="E72" s="3">
-        <v>-23400</v>
+        <v>-23300</v>
       </c>
       <c r="F72" s="3">
         <v>-23400</v>
@@ -4493,49 +4667,52 @@
         <v>-23400</v>
       </c>
       <c r="J72" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="K72" s="3">
         <v>-23300</v>
       </c>
       <c r="L72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="M72" s="3">
         <v>-23200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-22700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-22600</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-22400</v>
       </c>
       <c r="T72" s="3">
         <v>-22400</v>
       </c>
       <c r="U72" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="V72" s="3">
         <v>-21500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-21400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,26 +4912,29 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>400</v>
+      </c>
+      <c r="E76" s="3">
         <v>500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>300</v>
       </c>
-      <c r="F76" s="3">
-        <v>200</v>
-      </c>
       <c r="G76" s="3">
+        <v>200</v>
+      </c>
+      <c r="H76" s="3">
         <v>300</v>
       </c>
-      <c r="H76" s="3">
-        <v>200</v>
-      </c>
       <c r="I76" s="3">
         <v>200</v>
       </c>
@@ -4759,16 +4945,16 @@
         <v>200</v>
       </c>
       <c r="L76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N76" s="3">
         <v>200</v>
       </c>
       <c r="O76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P76" s="3">
         <v>300</v>
@@ -4777,25 +4963,28 @@
         <v>300</v>
       </c>
       <c r="R76" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S76" s="3">
         <v>400</v>
       </c>
       <c r="T76" s="3">
+        <v>400</v>
+      </c>
+      <c r="U76" s="3">
         <v>300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
-      <c r="V76" s="3">
-        <v>-100</v>
-      </c>
       <c r="W76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,107 +5048,113 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
@@ -4977,25 +5172,28 @@
         <v>-100</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
-      <c r="U81" s="3">
-        <v>-100</v>
-      </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5075,17 +5274,20 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V83" s="3">
-        <v>0</v>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,13 +5623,16 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -5427,16 +5644,16 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,19 +6287,22 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>-100</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6198,10 +6450,10 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>MOJO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,127 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>400</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>400</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
@@ -791,10 +794,10 @@
         <v>400</v>
       </c>
       <c r="L8" s="3">
+        <v>400</v>
+      </c>
+      <c r="M8" s="3">
         <v>500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>400</v>
       </c>
       <c r="N8" s="3">
         <v>400</v>
@@ -803,34 +806,37 @@
         <v>400</v>
       </c>
       <c r="P8" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
-        <v>200</v>
-      </c>
       <c r="W8" s="3">
         <v>200</v>
       </c>
       <c r="X8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,17 +847,17 @@
         <v>300</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3">
+        <v>200</v>
+      </c>
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
-        <v>200</v>
-      </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
@@ -859,11 +865,11 @@
         <v>200</v>
       </c>
       <c r="L9" s="3">
+        <v>200</v>
+      </c>
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
-        <v>200</v>
-      </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
@@ -871,55 +877,58 @@
         <v>200</v>
       </c>
       <c r="P9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
-        <v>200</v>
-      </c>
       <c r="S9" s="3">
         <v>200</v>
       </c>
       <c r="T9" s="3">
+        <v>200</v>
+      </c>
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
-        <v>200</v>
-      </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
       </c>
       <c r="X9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
-        <v>200</v>
-      </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
+        <v>100</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
-        <v>200</v>
-      </c>
       <c r="J10" s="3">
         <v>200</v>
       </c>
@@ -942,13 +951,13 @@
         <v>200</v>
       </c>
       <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3">
-        <v>200</v>
-      </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
@@ -963,10 +972,13 @@
         <v>100</v>
       </c>
       <c r="X10" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1298,19 +1324,19 @@
         <v>500</v>
       </c>
       <c r="F17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
       </c>
       <c r="H17" s="3">
+        <v>400</v>
+      </c>
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
@@ -1325,105 +1351,111 @@
         <v>500</v>
       </c>
       <c r="O17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>500</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
       </c>
       <c r="U17" s="3">
+        <v>500</v>
+      </c>
+      <c r="V17" s="3">
         <v>1300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
-      </c>
-      <c r="W17" s="3">
-        <v>600</v>
       </c>
       <c r="X17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>-100</v>
-      </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1578,14 +1614,17 @@
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
-      <c r="X21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,40 +1691,43 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
@@ -1703,25 +1745,28 @@
         <v>-100</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-900</v>
       </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
       <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1737,8 +1782,8 @@
       <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,40 +1904,43 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
@@ -1907,57 +1958,60 @@
         <v>-100</v>
       </c>
       <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-900</v>
       </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
       <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
@@ -1975,25 +2029,28 @@
         <v>-100</v>
       </c>
       <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-900</v>
       </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,40 +2401,43 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
@@ -2383,25 +2455,28 @@
         <v>-100</v>
       </c>
       <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-900</v>
       </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
       <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,40 +2543,43 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
@@ -2519,98 +2597,104 @@
         <v>-100</v>
       </c>
       <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-900</v>
       </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
       <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2676,22 +2762,22 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,19 +2898,19 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2842,36 +2934,39 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
@@ -2880,7 +2975,7 @@
         <v>300</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -2901,10 +2996,10 @@
         <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
@@ -2913,16 +3008,16 @@
         <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S44" s="3">
         <v>300</v>
       </c>
       <c r="T44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V44" s="3">
         <v>300</v>
@@ -2931,10 +3026,13 @@
         <v>300</v>
       </c>
       <c r="X44" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2945,19 +3043,19 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2983,67 +3081,70 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>600</v>
       </c>
       <c r="F46" s="3">
+        <v>600</v>
+      </c>
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
-      </c>
-      <c r="I46" s="3">
-        <v>400</v>
       </c>
       <c r="J46" s="3">
         <v>400</v>
       </c>
       <c r="K46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
+        <v>300</v>
+      </c>
+      <c r="N46" s="3">
         <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
       </c>
       <c r="P46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q46" s="3">
         <v>400</v>
@@ -3055,22 +3156,25 @@
         <v>400</v>
       </c>
       <c r="T46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U46" s="3">
         <v>500</v>
       </c>
       <c r="V46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W46" s="3">
         <v>400</v>
       </c>
       <c r="X46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3196,17 +3303,20 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W48" s="3">
-        <v>0</v>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3438,11 +3557,11 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,49 +3667,52 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
         <v>600</v>
       </c>
       <c r="F54" s="3">
+        <v>600</v>
+      </c>
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>400</v>
       </c>
       <c r="J54" s="3">
         <v>400</v>
       </c>
       <c r="K54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
       </c>
       <c r="M54" s="3">
+        <v>300</v>
+      </c>
+      <c r="N54" s="3">
         <v>400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
       <c r="P54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q54" s="3">
         <v>400</v>
@@ -3599,22 +3724,25 @@
         <v>400</v>
       </c>
       <c r="T54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U54" s="3">
         <v>500</v>
       </c>
       <c r="V54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="W54" s="3">
         <v>400</v>
       </c>
       <c r="X54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,19 +3794,20 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -3698,13 +3828,13 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3716,25 +3846,28 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3756,8 +3889,8 @@
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -3774,8 +3907,8 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3815,11 +3951,11 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -3834,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3848,11 +3984,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -3861,33 +3997,36 @@
         <v>0</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
       </c>
-      <c r="X59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -3911,7 +4050,7 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
@@ -3920,25 +4059,28 @@
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
         <v>0</v>
       </c>
       <c r="U60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V60" s="3">
+        <v>100</v>
+      </c>
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>500</v>
       </c>
-      <c r="X60" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4028,11 +4173,11 @@
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
@@ -4049,8 +4194,8 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,25 +4431,28 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -4319,7 +4476,7 @@
         <v>200</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
@@ -4328,25 +4485,28 @@
         <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T66" s="3">
         <v>0</v>
       </c>
       <c r="U66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V66" s="3">
+        <v>100</v>
+      </c>
+      <c r="W66" s="3">
         <v>700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>500</v>
       </c>
-      <c r="X66" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,19 +4813,22 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="E72" s="3">
         <v>-23300</v>
       </c>
       <c r="F72" s="3">
-        <v>-23400</v>
+        <v>-23300</v>
       </c>
       <c r="G72" s="3">
         <v>-23400</v>
@@ -4670,49 +4843,52 @@
         <v>-23400</v>
       </c>
       <c r="K72" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="L72" s="3">
         <v>-23300</v>
       </c>
       <c r="M72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-23200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-22800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-22700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-22600</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-22400</v>
       </c>
       <c r="U72" s="3">
         <v>-22400</v>
       </c>
       <c r="V72" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="W72" s="3">
         <v>-21500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-21400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5097,11 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4924,20 +5109,20 @@
         <v>400</v>
       </c>
       <c r="E76" s="3">
+        <v>400</v>
+      </c>
+      <c r="F76" s="3">
         <v>500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>300</v>
       </c>
-      <c r="G76" s="3">
-        <v>200</v>
-      </c>
       <c r="H76" s="3">
+        <v>200</v>
+      </c>
+      <c r="I76" s="3">
         <v>300</v>
       </c>
-      <c r="I76" s="3">
-        <v>200</v>
-      </c>
       <c r="J76" s="3">
         <v>200</v>
       </c>
@@ -4948,16 +5133,16 @@
         <v>200</v>
       </c>
       <c r="M76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O76" s="3">
         <v>200</v>
       </c>
       <c r="P76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q76" s="3">
         <v>300</v>
@@ -4966,25 +5151,28 @@
         <v>300</v>
       </c>
       <c r="S76" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T76" s="3">
         <v>400</v>
       </c>
       <c r="U76" s="3">
+        <v>400</v>
+      </c>
+      <c r="V76" s="3">
         <v>300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
-      <c r="W76" s="3">
-        <v>-100</v>
-      </c>
       <c r="X76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,113 +5239,119 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
@@ -5175,25 +5369,28 @@
         <v>-100</v>
       </c>
       <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-900</v>
       </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
       <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5277,17 +5475,20 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W83" s="3">
-        <v>0</v>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,16 +5839,19 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -5647,16 +5863,16 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,22 +6532,25 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-100</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6453,10 +6704,10 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,160 +665,168 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>400</v>
+      </c>
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>400</v>
       </c>
       <c r="L8" s="3">
         <v>400</v>
       </c>
       <c r="M8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N8" s="3">
         <v>400</v>
       </c>
       <c r="O8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P8" s="3">
         <v>400</v>
       </c>
       <c r="Q8" s="3">
+        <v>400</v>
+      </c>
+      <c r="R8" s="3">
+        <v>400</v>
+      </c>
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>800</v>
-      </c>
-      <c r="S8" s="3">
-        <v>400</v>
-      </c>
-      <c r="T8" s="3">
-        <v>300</v>
       </c>
       <c r="U8" s="3">
         <v>400</v>
@@ -827,87 +835,99 @@
         <v>300</v>
       </c>
       <c r="W8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="X8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>300</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>200</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
-        <v>200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>200</v>
-      </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
       <c r="M9" s="3">
+        <v>200</v>
+      </c>
+      <c r="N9" s="3">
+        <v>200</v>
+      </c>
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
-        <v>200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>200</v>
-      </c>
       <c r="P9" s="3">
         <v>200</v>
       </c>
       <c r="Q9" s="3">
+        <v>200</v>
+      </c>
+      <c r="R9" s="3">
+        <v>200</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
-        <v>200</v>
-      </c>
-      <c r="T9" s="3">
-        <v>200</v>
-      </c>
       <c r="U9" s="3">
+        <v>200</v>
+      </c>
+      <c r="V9" s="3">
+        <v>200</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="V9" s="3">
-        <v>200</v>
-      </c>
-      <c r="W9" s="3">
-        <v>100</v>
-      </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -918,23 +938,23 @@
         <v>200</v>
       </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
-        <v>200</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
-        <v>200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>200</v>
-      </c>
       <c r="L10" s="3">
         <v>200</v>
       </c>
@@ -954,16 +974,16 @@
         <v>200</v>
       </c>
       <c r="R10" s="3">
+        <v>200</v>
+      </c>
+      <c r="S10" s="3">
+        <v>200</v>
+      </c>
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3">
-        <v>200</v>
-      </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V10" s="3">
         <v>100</v>
@@ -975,10 +995,16 @@
         <v>100</v>
       </c>
       <c r="Y10" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1364,10 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1327,13 +1381,13 @@
         <v>500</v>
       </c>
       <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
@@ -1342,7 +1396,7 @@
         <v>500</v>
       </c>
       <c r="L17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>500</v>
@@ -1354,108 +1408,120 @@
         <v>500</v>
       </c>
       <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1552,16 +1620,22 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+      <c r="E21" s="3">
+        <v>-100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
@@ -1617,14 +1691,20 @@
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-400</v>
       </c>
-      <c r="Y21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,46 +1774,52 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1748,33 +1834,39 @@
         <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>8</v>
@@ -1785,11 +1877,11 @@
       <c r="H24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,46 +2005,52 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -1961,63 +2065,69 @@
         <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -2032,25 +2142,31 @@
         <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2404,46 +2544,52 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -2458,25 +2604,31 @@
         <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,46 +2698,52 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2600,101 +2758,113 @@
         <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2919,10 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2765,25 +2939,25 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2818,8 +2992,14 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,34 +3069,40 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2937,51 +3123,57 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>300</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J44" s="3">
         <v>200</v>
@@ -2999,40 +3191,46 @@
         <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
       </c>
       <c r="Q44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>200</v>
       </c>
       <c r="S44" s="3">
+        <v>200</v>
+      </c>
+      <c r="T44" s="3">
+        <v>200</v>
+      </c>
+      <c r="U44" s="3">
         <v>300</v>
-      </c>
-      <c r="T44" s="3">
-        <v>300</v>
-      </c>
-      <c r="U44" s="3">
-        <v>200</v>
       </c>
       <c r="V44" s="3">
         <v>300</v>
       </c>
       <c r="W44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X44" s="3">
         <v>300</v>
       </c>
       <c r="Y44" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3040,28 +3238,28 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3084,73 +3282,79 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E46" s="3">
         <v>600</v>
       </c>
       <c r="F46" s="3">
+        <v>400</v>
+      </c>
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
-        <v>500</v>
-      </c>
       <c r="H46" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I46" s="3">
         <v>500</v>
       </c>
       <c r="J46" s="3">
+        <v>300</v>
+      </c>
+      <c r="K46" s="3">
+        <v>500</v>
+      </c>
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>400</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
       </c>
       <c r="P46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
-        <v>400</v>
-      </c>
       <c r="R46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>400</v>
@@ -3159,22 +3363,28 @@
         <v>400</v>
       </c>
       <c r="U46" s="3">
+        <v>400</v>
+      </c>
+      <c r="V46" s="3">
+        <v>400</v>
+      </c>
+      <c r="W46" s="3">
         <v>500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3306,17 +3522,23 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>8</v>
+      <c r="W48" s="3">
+        <v>0</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
       </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3560,14 +3800,14 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,55 +3916,61 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E54" s="3">
         <v>600</v>
       </c>
       <c r="F54" s="3">
+        <v>400</v>
+      </c>
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
-        <v>500</v>
-      </c>
       <c r="H54" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="I54" s="3">
         <v>500</v>
       </c>
       <c r="J54" s="3">
+        <v>300</v>
+      </c>
+      <c r="K54" s="3">
+        <v>500</v>
+      </c>
+      <c r="L54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
-        <v>400</v>
-      </c>
       <c r="R54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>400</v>
@@ -3727,22 +3979,28 @@
         <v>400</v>
       </c>
       <c r="U54" s="3">
+        <v>400</v>
+      </c>
+      <c r="V54" s="3">
+        <v>400</v>
+      </c>
+      <c r="W54" s="3">
         <v>500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +4055,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3807,13 +4069,13 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -3831,16 +4093,16 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3849,33 +4111,39 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3892,11 +4160,11 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -3910,11 +4178,11 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3937,16 +4205,22 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -3954,14 +4228,14 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3973,13 +4247,13 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3987,52 +4261,58 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
       <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
         <v>600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>500</v>
       </c>
-      <c r="Y59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -4053,34 +4333,40 @@
         <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
       </c>
       <c r="T60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y60" s="3">
         <v>700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>500</v>
       </c>
-      <c r="Y60" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,40 +4436,46 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -4197,11 +4489,11 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,31 +4744,37 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
@@ -4479,34 +4795,40 @@
         <v>200</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S66" s="3">
         <v>100</v>
       </c>
       <c r="T66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y66" s="3">
         <v>700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>500</v>
       </c>
-      <c r="Y66" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,25 +5158,31 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-23400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-23300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-23300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-23400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-23400</v>
       </c>
       <c r="I72" s="3">
         <v>-23400</v>
@@ -4846,49 +5194,55 @@
         <v>-23400</v>
       </c>
       <c r="L72" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="N72" s="3">
         <v>-23300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-23300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-23200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-23100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-22900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-22800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-22700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-22600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-22400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-22400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-21500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-21400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,25 +5466,31 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>200</v>
+      </c>
+      <c r="F76" s="3">
         <v>400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>200</v>
       </c>
       <c r="I76" s="3">
         <v>300</v>
@@ -5127,7 +5499,7 @@
         <v>200</v>
       </c>
       <c r="K76" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L76" s="3">
         <v>200</v>
@@ -5136,43 +5508,49 @@
         <v>200</v>
       </c>
       <c r="N76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O76" s="3">
         <v>200</v>
       </c>
       <c r="P76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S76" s="3">
         <v>300</v>
       </c>
       <c r="T76" s="3">
+        <v>300</v>
+      </c>
+      <c r="U76" s="3">
+        <v>300</v>
+      </c>
+      <c r="V76" s="3">
         <v>400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-200</v>
       </c>
-      <c r="X76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,122 +5620,134 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -5372,25 +5762,31 @@
         <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5478,17 +5876,23 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>8</v>
+      <c r="W83" s="3">
+        <v>0</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,22 +6270,28 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -5866,19 +6300,19 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5913,8 +6347,14 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6544,19 +7036,19 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -6606,8 +7098,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6707,13 +7211,13 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -6746,6 +7250,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>MOJO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,28 +785,28 @@
         <v>500</v>
       </c>
       <c r="E8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F8" s="3">
         <v>400</v>
       </c>
       <c r="G8" s="3">
+        <v>400</v>
+      </c>
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
-      </c>
-      <c r="L8" s="3">
-        <v>400</v>
       </c>
       <c r="M8" s="3">
         <v>400</v>
@@ -811,10 +815,10 @@
         <v>400</v>
       </c>
       <c r="O8" s="3">
+        <v>400</v>
+      </c>
+      <c r="P8" s="3">
         <v>500</v>
-      </c>
-      <c r="P8" s="3">
-        <v>400</v>
       </c>
       <c r="Q8" s="3">
         <v>400</v>
@@ -823,34 +827,37 @@
         <v>400</v>
       </c>
       <c r="S8" s="3">
+        <v>400</v>
+      </c>
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>300</v>
       </c>
-      <c r="Y8" s="3">
-        <v>200</v>
-      </c>
       <c r="Z8" s="3">
         <v>200</v>
       </c>
       <c r="AA8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,10 +865,10 @@
         <v>400</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
@@ -870,17 +877,17 @@
         <v>300</v>
       </c>
       <c r="I9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
       </c>
       <c r="K9" s="3">
+        <v>200</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
-        <v>200</v>
-      </c>
       <c r="M9" s="3">
         <v>200</v>
       </c>
@@ -888,11 +895,11 @@
         <v>200</v>
       </c>
       <c r="O9" s="3">
+        <v>200</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
-        <v>200</v>
-      </c>
       <c r="Q9" s="3">
         <v>200</v>
       </c>
@@ -900,34 +907,37 @@
         <v>200</v>
       </c>
       <c r="S9" s="3">
+        <v>200</v>
+      </c>
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="U9" s="3">
-        <v>200</v>
-      </c>
       <c r="V9" s="3">
         <v>200</v>
       </c>
       <c r="W9" s="3">
+        <v>200</v>
+      </c>
+      <c r="X9" s="3">
         <v>300</v>
       </c>
-      <c r="X9" s="3">
-        <v>200</v>
-      </c>
       <c r="Y9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z9" s="3">
         <v>100</v>
       </c>
       <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -935,29 +945,29 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
-        <v>200</v>
-      </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K10" s="3">
+        <v>100</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
-        <v>200</v>
-      </c>
       <c r="M10" s="3">
         <v>200</v>
       </c>
@@ -980,13 +990,13 @@
         <v>200</v>
       </c>
       <c r="T10" s="3">
+        <v>200</v>
+      </c>
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
-        <v>200</v>
-      </c>
       <c r="V10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W10" s="3">
         <v>100</v>
@@ -1001,10 +1011,13 @@
         <v>100</v>
       </c>
       <c r="AA10" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,13 +1392,14 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>500</v>
@@ -1387,19 +1414,19 @@
         <v>500</v>
       </c>
       <c r="I17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
       </c>
       <c r="K17" s="3">
+        <v>400</v>
+      </c>
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
@@ -1414,114 +1441,120 @@
         <v>500</v>
       </c>
       <c r="R17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S17" s="3">
         <v>600</v>
       </c>
       <c r="T17" s="3">
+        <v>600</v>
+      </c>
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
-      </c>
-      <c r="V17" s="3">
-        <v>500</v>
       </c>
       <c r="W17" s="3">
         <v>500</v>
       </c>
       <c r="X17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>600</v>
       </c>
       <c r="AA17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>-100</v>
-      </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
-        <v>-100</v>
-      </c>
       <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,19 +1660,22 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
@@ -1697,14 +1734,17 @@
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-400</v>
       </c>
-      <c r="AA21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,8 +1820,11 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1789,40 +1832,40 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
@@ -1840,25 +1883,28 @@
         <v>-100</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-900</v>
       </c>
-      <c r="Y23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
-      <c r="AA23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1868,8 +1914,8 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>8</v>
@@ -1883,8 +1929,8 @@
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,8 +2060,11 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2020,40 +2072,40 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
@@ -2071,25 +2123,28 @@
         <v>-100</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-900</v>
       </c>
-      <c r="Y26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
-      <c r="AA26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2097,40 +2152,40 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
@@ -2148,25 +2203,28 @@
         <v>-100</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-900</v>
       </c>
-      <c r="Y27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
-      <c r="AA27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2550,8 +2620,11 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2559,40 +2632,40 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
@@ -2610,25 +2683,28 @@
         <v>-100</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
-      <c r="Y33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
-      <c r="AA33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,8 +2780,11 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2713,40 +2792,40 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
@@ -2764,107 +2843,113 @@
         <v>-100</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
-      <c r="Y35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
-      <c r="AA35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2945,22 +3032,22 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,16 +3165,19 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -3093,19 +3186,19 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -3129,31 +3222,34 @@
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y43" s="3">
         <v>100</v>
       </c>
       <c r="Z43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3161,13 +3257,13 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
+        <v>300</v>
+      </c>
+      <c r="F44" s="3">
         <v>400</v>
       </c>
-      <c r="F44" s="3">
-        <v>200</v>
-      </c>
       <c r="G44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
@@ -3176,7 +3272,7 @@
         <v>300</v>
       </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
@@ -3197,10 +3293,10 @@
         <v>200</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
@@ -3209,16 +3305,16 @@
         <v>200</v>
       </c>
       <c r="U44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V44" s="3">
         <v>300</v>
       </c>
       <c r="W44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y44" s="3">
         <v>300</v>
@@ -3227,21 +3323,24 @@
         <v>300</v>
       </c>
       <c r="AA44" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3250,19 +3349,19 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3288,76 +3387,79 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>600</v>
       </c>
       <c r="H46" s="3">
         <v>600</v>
       </c>
       <c r="I46" s="3">
+        <v>600</v>
+      </c>
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
-      </c>
-      <c r="L46" s="3">
-        <v>400</v>
       </c>
       <c r="M46" s="3">
         <v>400</v>
       </c>
       <c r="N46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
       </c>
       <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>400</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>300</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
       </c>
       <c r="S46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T46" s="3">
         <v>400</v>
@@ -3369,22 +3471,25 @@
         <v>400</v>
       </c>
       <c r="W46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="X46" s="3">
         <v>500</v>
       </c>
       <c r="Y46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z46" s="3">
         <v>400</v>
       </c>
       <c r="AA46" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3528,17 +3636,20 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-      <c r="Y48" s="3" t="s">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z48" s="3">
-        <v>0</v>
-      </c>
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3806,12 +3926,12 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,58 +4045,61 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>600</v>
       </c>
       <c r="H54" s="3">
         <v>600</v>
       </c>
       <c r="I54" s="3">
+        <v>600</v>
+      </c>
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>400</v>
       </c>
       <c r="M54" s="3">
         <v>400</v>
       </c>
       <c r="N54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>300</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
       <c r="S54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T54" s="3">
         <v>400</v>
@@ -3985,22 +4111,25 @@
         <v>400</v>
       </c>
       <c r="W54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="X54" s="3">
         <v>500</v>
       </c>
       <c r="Y54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z54" s="3">
         <v>400</v>
       </c>
       <c r="AA54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,19 +4197,19 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -4099,13 +4230,13 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -4117,36 +4248,39 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="3">
         <v>100</v>
       </c>
       <c r="Z57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4166,8 +4300,8 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -4184,8 +4318,8 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4211,8 +4345,11 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4222,8 +4359,8 @@
       <c r="E59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -4234,12 +4371,12 @@
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
@@ -4253,10 +4390,10 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -4267,12 +4404,12 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
@@ -4280,42 +4417,45 @@
         <v>0</v>
       </c>
       <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
         <v>600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>500</v>
       </c>
-      <c r="AA59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
@@ -4339,7 +4479,7 @@
         <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
@@ -4348,25 +4488,28 @@
         <v>100</v>
       </c>
       <c r="V60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W60" s="3">
         <v>0</v>
       </c>
       <c r="X60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>500</v>
       </c>
-      <c r="AA60" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4468,17 +4614,17 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
+      <c r="M62" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -4495,8 +4641,8 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,34 +4905,37 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
@@ -4801,7 +4959,7 @@
         <v>200</v>
       </c>
       <c r="S66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T66" s="3">
         <v>100</v>
@@ -4810,25 +4968,28 @@
         <v>100</v>
       </c>
       <c r="V66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W66" s="3">
         <v>0</v>
       </c>
       <c r="X66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z66" s="3">
         <v>700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>500</v>
       </c>
-      <c r="AA66" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,28 +5335,31 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-23500</v>
+        <v>-23600</v>
       </c>
       <c r="E72" s="3">
         <v>-23500</v>
       </c>
       <c r="F72" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-23400</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-23300</v>
       </c>
       <c r="H72" s="3">
         <v>-23300</v>
       </c>
       <c r="I72" s="3">
-        <v>-23400</v>
+        <v>-23300</v>
       </c>
       <c r="J72" s="3">
         <v>-23400</v>
@@ -5200,49 +5374,52 @@
         <v>-23400</v>
       </c>
       <c r="N72" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="O72" s="3">
         <v>-23300</v>
       </c>
       <c r="P72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-23200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-22900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-22800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-22700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-22600</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-22400</v>
       </c>
       <c r="X72" s="3">
         <v>-22400</v>
       </c>
       <c r="Y72" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-21500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-21400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5484,26 +5670,26 @@
         <v>200</v>
       </c>
       <c r="F76" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G76" s="3">
         <v>400</v>
       </c>
       <c r="H76" s="3">
+        <v>400</v>
+      </c>
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>300</v>
       </c>
-      <c r="J76" s="3">
-        <v>200</v>
-      </c>
       <c r="K76" s="3">
+        <v>200</v>
+      </c>
+      <c r="L76" s="3">
         <v>300</v>
       </c>
-      <c r="L76" s="3">
-        <v>200</v>
-      </c>
       <c r="M76" s="3">
         <v>200</v>
       </c>
@@ -5514,16 +5700,16 @@
         <v>200</v>
       </c>
       <c r="P76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R76" s="3">
         <v>200</v>
       </c>
       <c r="S76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T76" s="3">
         <v>300</v>
@@ -5532,25 +5718,28 @@
         <v>300</v>
       </c>
       <c r="V76" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W76" s="3">
         <v>400</v>
       </c>
       <c r="X76" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y76" s="3">
         <v>300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-200</v>
       </c>
-      <c r="Z76" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,90 +5815,96 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5717,40 +5912,40 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
@@ -5768,25 +5963,28 @@
         <v>-100</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
-      <c r="Y81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
-      <c r="AA81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5882,17 +6081,20 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,25 +6490,28 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -6306,16 +6523,16 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,13 +7270,16 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -7042,16 +7288,16 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-100</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7217,10 +7469,10 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -785,61 +792,61 @@
         <v>500</v>
       </c>
       <c r="E8" s="3">
+        <v>400</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>500</v>
+      </c>
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>400</v>
       </c>
       <c r="O8" s="3">
         <v>400</v>
       </c>
       <c r="P8" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="3">
         <v>400</v>
       </c>
       <c r="R8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S8" s="3">
         <v>400</v>
       </c>
       <c r="T8" s="3">
+        <v>400</v>
+      </c>
+      <c r="U8" s="3">
+        <v>400</v>
+      </c>
+      <c r="V8" s="3">
         <v>500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>800</v>
-      </c>
-      <c r="V8" s="3">
-        <v>400</v>
-      </c>
-      <c r="W8" s="3">
-        <v>300</v>
       </c>
       <c r="X8" s="3">
         <v>400</v>
@@ -848,107 +855,119 @@
         <v>300</v>
       </c>
       <c r="Z8" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="AA8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
-        <v>200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>300</v>
-      </c>
       <c r="H9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L9" s="3">
+        <v>200</v>
+      </c>
+      <c r="M9" s="3">
+        <v>200</v>
+      </c>
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
-        <v>200</v>
-      </c>
-      <c r="N9" s="3">
-        <v>200</v>
-      </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
       <c r="P9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>200</v>
+      </c>
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
-        <v>200</v>
-      </c>
-      <c r="R9" s="3">
-        <v>200</v>
-      </c>
       <c r="S9" s="3">
         <v>200</v>
       </c>
       <c r="T9" s="3">
+        <v>200</v>
+      </c>
+      <c r="U9" s="3">
+        <v>200</v>
+      </c>
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>400</v>
       </c>
-      <c r="V9" s="3">
-        <v>200</v>
-      </c>
-      <c r="W9" s="3">
-        <v>200</v>
-      </c>
       <c r="X9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z9" s="3">
         <v>300</v>
       </c>
-      <c r="Y9" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>100</v>
-      </c>
       <c r="AA9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
@@ -957,23 +976,23 @@
         <v>200</v>
       </c>
       <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>200</v>
+      </c>
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
-        <v>200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
-        <v>200</v>
-      </c>
-      <c r="N10" s="3">
-        <v>200</v>
-      </c>
       <c r="O10" s="3">
         <v>200</v>
       </c>
@@ -993,16 +1012,16 @@
         <v>200</v>
       </c>
       <c r="U10" s="3">
+        <v>200</v>
+      </c>
+      <c r="V10" s="3">
+        <v>200</v>
+      </c>
+      <c r="W10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3">
-        <v>200</v>
-      </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
       <c r="X10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y10" s="3">
         <v>100</v>
@@ -1014,10 +1033,16 @@
         <v>100</v>
       </c>
       <c r="AB10" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,19 +1444,21 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>500</v>
@@ -1417,13 +1470,13 @@
         <v>500</v>
       </c>
       <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>500</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
@@ -1432,7 +1485,7 @@
         <v>500</v>
       </c>
       <c r="O17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
@@ -1444,42 +1497,48 @@
         <v>500</v>
       </c>
       <c r="S17" s="3">
+        <v>500</v>
+      </c>
+      <c r="T17" s="3">
+        <v>500</v>
+      </c>
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1488,73 +1547,79 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-100</v>
-      </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-400</v>
       </c>
-      <c r="AB18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1648,10 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1663,8 +1730,14 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
@@ -1737,14 +1810,20 @@
       <c r="Z21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-400</v>
       </c>
-      <c r="AB21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,8 +1902,14 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1832,46 +1917,46 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
@@ -1886,30 +1971,36 @@
         <v>-100</v>
       </c>
       <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-900</v>
       </c>
-      <c r="Z23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-400</v>
       </c>
-      <c r="AB23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1917,11 +2008,11 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>8</v>
@@ -1932,11 +2023,11 @@
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,8 +2160,14 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2072,46 +2175,46 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
@@ -2126,25 +2229,31 @@
         <v>-100</v>
       </c>
       <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-900</v>
       </c>
-      <c r="Z26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-400</v>
       </c>
-      <c r="AB26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2152,46 +2261,46 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
@@ -2206,25 +2315,31 @@
         <v>-100</v>
       </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-900</v>
       </c>
-      <c r="Z27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-400</v>
       </c>
-      <c r="AB27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2676,14 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2623,8 +2762,14 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2632,46 +2777,46 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
@@ -2686,25 +2831,31 @@
         <v>-100</v>
       </c>
       <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-900</v>
       </c>
-      <c r="Z33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-400</v>
       </c>
-      <c r="AB33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,8 +2934,14 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2792,46 +2949,46 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
@@ -2846,110 +3003,122 @@
         <v>-100</v>
       </c>
       <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-900</v>
       </c>
-      <c r="Z35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-400</v>
       </c>
-      <c r="AB35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3179,10 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3035,25 +3208,25 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -3088,8 +3261,14 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,43 +3347,49 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
-        <v>200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -3225,60 +3410,66 @@
         <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
         <v>100</v>
       </c>
       <c r="Z43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
       </c>
       <c r="F44" s="3">
+        <v>300</v>
+      </c>
+      <c r="G44" s="3">
+        <v>300</v>
+      </c>
+      <c r="H44" s="3">
         <v>400</v>
       </c>
-      <c r="G44" s="3">
-        <v>200</v>
-      </c>
-      <c r="H44" s="3">
-        <v>300</v>
-      </c>
       <c r="I44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J44" s="3">
         <v>300</v>
       </c>
       <c r="K44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
@@ -3296,48 +3487,54 @@
         <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
       </c>
       <c r="T44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U44" s="3">
         <v>200</v>
       </c>
       <c r="V44" s="3">
+        <v>200</v>
+      </c>
+      <c r="W44" s="3">
+        <v>200</v>
+      </c>
+      <c r="X44" s="3">
         <v>300</v>
-      </c>
-      <c r="W44" s="3">
-        <v>300</v>
-      </c>
-      <c r="X44" s="3">
-        <v>200</v>
       </c>
       <c r="Y44" s="3">
         <v>300</v>
       </c>
       <c r="Z44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA44" s="3">
         <v>300</v>
       </c>
       <c r="AB44" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -3346,28 +3543,28 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3390,82 +3587,88 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
       <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>600</v>
       </c>
       <c r="G46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H46" s="3">
         <v>600</v>
       </c>
       <c r="I46" s="3">
+        <v>400</v>
+      </c>
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
-        <v>500</v>
-      </c>
       <c r="K46" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L46" s="3">
         <v>500</v>
       </c>
       <c r="M46" s="3">
+        <v>300</v>
+      </c>
+      <c r="N46" s="3">
+        <v>500</v>
+      </c>
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>400</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
       </c>
       <c r="S46" s="3">
+        <v>400</v>
+      </c>
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
-        <v>400</v>
-      </c>
       <c r="U46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V46" s="3">
         <v>400</v>
@@ -3474,22 +3677,28 @@
         <v>400</v>
       </c>
       <c r="X46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z46" s="3">
         <v>500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3777,14 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3639,17 +3854,23 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-      <c r="Z48" s="3" t="s">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3929,15 +4168,15 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,64 +4293,70 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F54" s="3">
         <v>600</v>
       </c>
       <c r="G54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H54" s="3">
         <v>600</v>
       </c>
       <c r="I54" s="3">
+        <v>400</v>
+      </c>
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
-        <v>500</v>
-      </c>
       <c r="K54" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L54" s="3">
         <v>500</v>
       </c>
       <c r="M54" s="3">
+        <v>300</v>
+      </c>
+      <c r="N54" s="3">
+        <v>500</v>
+      </c>
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>400</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
       <c r="S54" s="3">
+        <v>400</v>
+      </c>
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
-        <v>400</v>
-      </c>
       <c r="U54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V54" s="3">
         <v>400</v>
@@ -4114,22 +4365,28 @@
         <v>400</v>
       </c>
       <c r="X54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z54" s="3">
         <v>500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4447,10 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4200,7 +4461,7 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -4209,13 +4470,13 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -4233,16 +4494,16 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -4251,42 +4512,48 @@
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
-        <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -4303,11 +4570,11 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -4321,11 +4588,11 @@
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4348,120 +4615,132 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
       <c r="Y59" s="3">
         <v>0</v>
       </c>
       <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
         <v>600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>500</v>
       </c>
-      <c r="AB59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
       <c r="F60" s="3">
+        <v>400</v>
+      </c>
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3">
-        <v>100</v>
-      </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -4482,34 +4761,40 @@
         <v>200</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
       </c>
       <c r="W60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB60" s="3">
         <v>700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>500</v>
       </c>
-      <c r="AB60" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4873,14 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4617,20 +4908,20 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
@@ -4644,11 +4935,11 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,40 +5217,46 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
       </c>
       <c r="F66" s="3">
+        <v>400</v>
+      </c>
+      <c r="G66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3">
-        <v>100</v>
-      </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
@@ -4962,34 +5277,40 @@
         <v>200</v>
       </c>
       <c r="T66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>100</v>
       </c>
       <c r="W66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB66" s="3">
         <v>700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>500</v>
       </c>
-      <c r="AB66" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,8 +5679,14 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5347,25 +5694,25 @@
         <v>-23600</v>
       </c>
       <c r="E72" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-23500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-23500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-23400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-23300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-23300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-23400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-23400</v>
       </c>
       <c r="L72" s="3">
         <v>-23400</v>
@@ -5377,49 +5724,55 @@
         <v>-23400</v>
       </c>
       <c r="O72" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-23300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-23200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-23100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-23000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-22900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-22800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-22700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-22600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-22400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-22400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-21500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-21400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,8 +6023,14 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5667,25 +6038,25 @@
         <v>200</v>
       </c>
       <c r="E76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F76" s="3">
         <v>200</v>
       </c>
       <c r="G76" s="3">
+        <v>200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>200</v>
+      </c>
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>200</v>
       </c>
       <c r="L76" s="3">
         <v>300</v>
@@ -5694,7 +6065,7 @@
         <v>200</v>
       </c>
       <c r="N76" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O76" s="3">
         <v>200</v>
@@ -5703,43 +6074,49 @@
         <v>200</v>
       </c>
       <c r="Q76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R76" s="3">
         <v>200</v>
       </c>
       <c r="S76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V76" s="3">
         <v>300</v>
       </c>
       <c r="W76" s="3">
+        <v>300</v>
+      </c>
+      <c r="X76" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y76" s="3">
         <v>400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-200</v>
       </c>
-      <c r="AA76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,93 +6195,105 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5912,46 +6301,46 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
@@ -5966,25 +6355,31 @@
         <v>-100</v>
       </c>
       <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-900</v>
       </c>
-      <c r="Z81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-400</v>
       </c>
-      <c r="AB81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6084,17 +6481,23 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-      <c r="Z83" s="3" t="s">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6920,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6502,22 +6935,22 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -6526,19 +6959,19 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -6573,8 +7006,14 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,38 +7758,44 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I100" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -7353,8 +7844,14 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7472,13 +7975,13 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,164 +665,168 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>500</v>
       </c>
       <c r="G8" s="3">
         <v>500</v>
       </c>
       <c r="H8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I8" s="3">
         <v>400</v>
       </c>
       <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
-      </c>
-      <c r="O8" s="3">
-        <v>400</v>
       </c>
       <c r="P8" s="3">
         <v>400</v>
@@ -831,10 +835,10 @@
         <v>400</v>
       </c>
       <c r="R8" s="3">
+        <v>400</v>
+      </c>
+      <c r="S8" s="3">
         <v>500</v>
-      </c>
-      <c r="S8" s="3">
-        <v>400</v>
       </c>
       <c r="T8" s="3">
         <v>400</v>
@@ -843,34 +847,37 @@
         <v>400</v>
       </c>
       <c r="V8" s="3">
+        <v>400</v>
+      </c>
+      <c r="W8" s="3">
         <v>500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>300</v>
       </c>
-      <c r="AB8" s="3">
-        <v>200</v>
-      </c>
       <c r="AC8" s="3">
         <v>200</v>
       </c>
       <c r="AD8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -878,19 +885,19 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F9" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
         <v>400</v>
       </c>
       <c r="H9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
@@ -899,17 +906,17 @@
         <v>300</v>
       </c>
       <c r="L9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
       </c>
       <c r="N9" s="3">
+        <v>200</v>
+      </c>
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
-        <v>200</v>
-      </c>
       <c r="P9" s="3">
         <v>200</v>
       </c>
@@ -917,11 +924,11 @@
         <v>200</v>
       </c>
       <c r="R9" s="3">
+        <v>200</v>
+      </c>
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
-        <v>200</v>
-      </c>
       <c r="T9" s="3">
         <v>200</v>
       </c>
@@ -929,73 +936,76 @@
         <v>200</v>
       </c>
       <c r="V9" s="3">
+        <v>200</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>400</v>
       </c>
-      <c r="X9" s="3">
-        <v>200</v>
-      </c>
       <c r="Y9" s="3">
         <v>200</v>
       </c>
       <c r="Z9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA9" s="3">
         <v>300</v>
       </c>
-      <c r="AA9" s="3">
-        <v>200</v>
-      </c>
       <c r="AB9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC9" s="3">
         <v>100</v>
       </c>
       <c r="AD9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
+        <v>200</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
-        <v>200</v>
-      </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
-        <v>200</v>
-      </c>
       <c r="P10" s="3">
         <v>200</v>
       </c>
@@ -1018,13 +1028,13 @@
         <v>200</v>
       </c>
       <c r="W10" s="3">
+        <v>200</v>
+      </c>
+      <c r="X10" s="3">
         <v>400</v>
       </c>
-      <c r="X10" s="3">
-        <v>200</v>
-      </c>
       <c r="Y10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z10" s="3">
         <v>100</v>
@@ -1039,10 +1049,13 @@
         <v>100</v>
       </c>
       <c r="AD10" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,22 +1472,23 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>500</v>
@@ -1476,19 +1503,19 @@
         <v>500</v>
       </c>
       <c r="L17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
       </c>
       <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>500</v>
       </c>
       <c r="Q17" s="3">
         <v>500</v>
@@ -1503,37 +1530,40 @@
         <v>500</v>
       </c>
       <c r="U17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V17" s="3">
         <v>600</v>
       </c>
       <c r="W17" s="3">
+        <v>600</v>
+      </c>
+      <c r="X17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>500</v>
       </c>
       <c r="Z17" s="3">
         <v>500</v>
       </c>
       <c r="AA17" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB17" s="3">
         <v>1300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>400</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>600</v>
       </c>
       <c r="AD17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1544,82 +1574,85 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
-        <v>-100</v>
-      </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-400</v>
       </c>
-      <c r="AD18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1736,8 +1770,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1745,19 +1782,19 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1816,14 +1853,17 @@
       <c r="AB21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-400</v>
       </c>
-      <c r="AD21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,8 +1948,11 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1917,49 +1960,49 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
@@ -1977,30 +2020,33 @@
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-900</v>
       </c>
-      <c r="AB23" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-400</v>
       </c>
-      <c r="AD23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -2014,8 +2060,8 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
@@ -2029,8 +2075,8 @@
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,8 +2215,11 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2175,49 +2227,49 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
@@ -2235,25 +2287,28 @@
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-900</v>
       </c>
-      <c r="AB26" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-400</v>
       </c>
-      <c r="AD26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2261,49 +2316,49 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
         <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
@@ -2321,25 +2376,28 @@
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-900</v>
       </c>
-      <c r="AB27" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-400</v>
       </c>
-      <c r="AD27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2691,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2768,8 +2838,11 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2777,49 +2850,49 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
@@ -2837,25 +2910,28 @@
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-900</v>
       </c>
-      <c r="AB33" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-400</v>
       </c>
-      <c r="AD33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,8 +3016,11 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2949,49 +3028,49 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
@@ -3009,116 +3088,122 @@
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-900</v>
       </c>
-      <c r="AB35" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-400</v>
       </c>
-      <c r="AD35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3214,22 +3301,22 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,25 +3443,28 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
-        <v>200</v>
-      </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -3380,19 +3473,19 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -3416,39 +3509,42 @@
         <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB43" s="3">
         <v>100</v>
       </c>
       <c r="AC43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3">
         <v>300</v>
@@ -3457,13 +3553,13 @@
         <v>300</v>
       </c>
       <c r="H44" s="3">
+        <v>300</v>
+      </c>
+      <c r="I44" s="3">
         <v>400</v>
       </c>
-      <c r="I44" s="3">
-        <v>200</v>
-      </c>
       <c r="J44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
@@ -3472,7 +3568,7 @@
         <v>300</v>
       </c>
       <c r="M44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
@@ -3493,10 +3589,10 @@
         <v>200</v>
       </c>
       <c r="T44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V44" s="3">
         <v>200</v>
@@ -3505,16 +3601,16 @@
         <v>200</v>
       </c>
       <c r="X44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y44" s="3">
         <v>300</v>
       </c>
       <c r="Z44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AA44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB44" s="3">
         <v>300</v>
@@ -3523,30 +3619,33 @@
         <v>300</v>
       </c>
       <c r="AD44" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -3555,19 +3654,19 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3593,26 +3692,29 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3" t="s">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
       <c r="AB45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3620,58 +3722,58 @@
         <v>500</v>
       </c>
       <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>600</v>
       </c>
       <c r="K46" s="3">
         <v>600</v>
       </c>
       <c r="L46" s="3">
+        <v>600</v>
+      </c>
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
-      </c>
-      <c r="O46" s="3">
-        <v>400</v>
       </c>
       <c r="P46" s="3">
         <v>400</v>
       </c>
       <c r="Q46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
       </c>
       <c r="S46" s="3">
+        <v>300</v>
+      </c>
+      <c r="T46" s="3">
         <v>400</v>
-      </c>
-      <c r="T46" s="3">
-        <v>300</v>
       </c>
       <c r="U46" s="3">
         <v>300</v>
       </c>
       <c r="V46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W46" s="3">
         <v>400</v>
@@ -3683,22 +3785,25 @@
         <v>400</v>
       </c>
       <c r="Z46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AA46" s="3">
         <v>500</v>
       </c>
       <c r="AB46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AC46" s="3">
         <v>400</v>
       </c>
       <c r="AD46" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3860,17 +3968,20 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-      <c r="AB48" s="3" t="s">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC48" s="3">
-        <v>0</v>
-      </c>
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4174,12 +4294,12 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,8 +4422,11 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4308,58 +4434,58 @@
         <v>500</v>
       </c>
       <c r="E54" s="3">
+        <v>500</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>600</v>
       </c>
       <c r="K54" s="3">
         <v>600</v>
       </c>
       <c r="L54" s="3">
+        <v>600</v>
+      </c>
+      <c r="M54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>500</v>
-      </c>
-      <c r="O54" s="3">
-        <v>400</v>
       </c>
       <c r="P54" s="3">
         <v>400</v>
       </c>
       <c r="Q54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
       </c>
       <c r="S54" s="3">
+        <v>300</v>
+      </c>
+      <c r="T54" s="3">
         <v>400</v>
-      </c>
-      <c r="T54" s="3">
-        <v>300</v>
       </c>
       <c r="U54" s="3">
         <v>300</v>
       </c>
       <c r="V54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W54" s="3">
         <v>400</v>
@@ -4371,22 +4497,25 @@
         <v>400</v>
       </c>
       <c r="Z54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AA54" s="3">
         <v>500</v>
       </c>
       <c r="AB54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AC54" s="3">
         <v>400</v>
       </c>
       <c r="AD54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4467,19 +4598,19 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -4500,13 +4631,13 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
@@ -4518,45 +4649,48 @@
         <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="3">
         <v>100</v>
       </c>
       <c r="AC57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
       </c>
       <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
-        <v>200</v>
-      </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -4576,8 +4710,8 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -4594,8 +4728,8 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4653,12 +4790,12 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
@@ -4672,10 +4809,10 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4686,12 +4823,12 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-      <c r="X59" s="3" t="s">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
-      </c>
       <c r="Z59" s="3">
         <v>0</v>
       </c>
@@ -4699,51 +4836,54 @@
         <v>0</v>
       </c>
       <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
         <v>600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>500</v>
       </c>
-      <c r="AD59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E60" s="3">
         <v>300</v>
       </c>
       <c r="F60" s="3">
+        <v>300</v>
+      </c>
+      <c r="G60" s="3">
         <v>400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
@@ -4767,7 +4907,7 @@
         <v>200</v>
       </c>
       <c r="V60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W60" s="3">
         <v>100</v>
@@ -4776,25 +4916,28 @@
         <v>100</v>
       </c>
       <c r="Y60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z60" s="3">
         <v>0</v>
       </c>
       <c r="AA60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC60" s="3">
         <v>700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>500</v>
       </c>
-      <c r="AD60" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4914,17 +5060,17 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
+      <c r="P62" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
@@ -4941,8 +5087,8 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,43 +5378,46 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>300</v>
       </c>
       <c r="F66" s="3">
+        <v>300</v>
+      </c>
+      <c r="G66" s="3">
         <v>400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>300</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
@@ -5283,7 +5441,7 @@
         <v>200</v>
       </c>
       <c r="V66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W66" s="3">
         <v>100</v>
@@ -5292,25 +5450,28 @@
         <v>100</v>
       </c>
       <c r="Y66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z66" s="3">
         <v>0</v>
       </c>
       <c r="AA66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC66" s="3">
         <v>700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>500</v>
       </c>
-      <c r="AD66" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,8 +5856,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5700,22 +5874,22 @@
         <v>-23600</v>
       </c>
       <c r="G72" s="3">
-        <v>-23500</v>
+        <v>-23600</v>
       </c>
       <c r="H72" s="3">
         <v>-23500</v>
       </c>
       <c r="I72" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="J72" s="3">
         <v>-23400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-23300</v>
       </c>
       <c r="K72" s="3">
         <v>-23300</v>
       </c>
       <c r="L72" s="3">
-        <v>-23400</v>
+        <v>-23300</v>
       </c>
       <c r="M72" s="3">
         <v>-23400</v>
@@ -5730,49 +5904,52 @@
         <v>-23400</v>
       </c>
       <c r="Q72" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="R72" s="3">
         <v>-23300</v>
       </c>
       <c r="S72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="T72" s="3">
         <v>-23200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-23100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-23000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-22900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-22800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-22700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-22600</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-22400</v>
       </c>
       <c r="AA72" s="3">
         <v>-22400</v>
       </c>
       <c r="AB72" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-21500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-21400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,8 +6212,11 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6038,10 +6224,10 @@
         <v>200</v>
       </c>
       <c r="E76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G76" s="3">
         <v>200</v>
@@ -6050,26 +6236,26 @@
         <v>200</v>
       </c>
       <c r="I76" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J76" s="3">
         <v>400</v>
       </c>
       <c r="K76" s="3">
+        <v>400</v>
+      </c>
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>300</v>
       </c>
-      <c r="M76" s="3">
-        <v>200</v>
-      </c>
       <c r="N76" s="3">
+        <v>200</v>
+      </c>
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
-        <v>200</v>
-      </c>
       <c r="P76" s="3">
         <v>200</v>
       </c>
@@ -6080,16 +6266,16 @@
         <v>200</v>
       </c>
       <c r="S76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U76" s="3">
         <v>200</v>
       </c>
       <c r="V76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W76" s="3">
         <v>300</v>
@@ -6098,25 +6284,28 @@
         <v>300</v>
       </c>
       <c r="Y76" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Z76" s="3">
         <v>400</v>
       </c>
       <c r="AA76" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB76" s="3">
         <v>300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-200</v>
       </c>
-      <c r="AC76" s="3">
-        <v>-100</v>
-      </c>
       <c r="AD76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,99 +6390,105 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6301,49 +6496,49 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
         <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
@@ -6361,25 +6556,28 @@
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-900</v>
       </c>
-      <c r="AB81" s="3">
-        <v>-100</v>
-      </c>
       <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-400</v>
       </c>
-      <c r="AD81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6487,17 +6686,20 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-      <c r="AB83" s="3" t="s">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC83" s="3">
-        <v>0</v>
-      </c>
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6935,25 +7152,25 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -6965,16 +7182,16 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7776,10 +8022,10 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -7788,16 +8034,16 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>-100</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7981,10 +8233,10 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MOJO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>MOJO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,171 +665,175 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
-      </c>
-      <c r="G8" s="3">
-        <v>500</v>
       </c>
       <c r="H8" s="3">
         <v>500</v>
       </c>
       <c r="I8" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J8" s="3">
         <v>400</v>
       </c>
       <c r="K8" s="3">
+        <v>400</v>
+      </c>
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>400</v>
       </c>
       <c r="Q8" s="3">
         <v>400</v>
@@ -838,10 +842,10 @@
         <v>400</v>
       </c>
       <c r="S8" s="3">
+        <v>400</v>
+      </c>
+      <c r="T8" s="3">
         <v>500</v>
-      </c>
-      <c r="T8" s="3">
-        <v>400</v>
       </c>
       <c r="U8" s="3">
         <v>400</v>
@@ -850,57 +854,60 @@
         <v>400</v>
       </c>
       <c r="W8" s="3">
+        <v>400</v>
+      </c>
+      <c r="X8" s="3">
         <v>500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>300</v>
       </c>
-      <c r="AC8" s="3">
-        <v>200</v>
-      </c>
       <c r="AD8" s="3">
         <v>200</v>
       </c>
       <c r="AE8" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF8" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="E9" s="3">
-        <v>300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>200</v>
-      </c>
       <c r="G9" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
       </c>
       <c r="I9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
@@ -909,17 +916,17 @@
         <v>300</v>
       </c>
       <c r="M9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
       <c r="O9" s="3">
+        <v>200</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
-        <v>200</v>
-      </c>
       <c r="Q9" s="3">
         <v>200</v>
       </c>
@@ -927,11 +934,11 @@
         <v>200</v>
       </c>
       <c r="S9" s="3">
+        <v>200</v>
+      </c>
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
-        <v>200</v>
-      </c>
       <c r="U9" s="3">
         <v>200</v>
       </c>
@@ -939,34 +946,37 @@
         <v>200</v>
       </c>
       <c r="W9" s="3">
+        <v>200</v>
+      </c>
+      <c r="X9" s="3">
         <v>300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>400</v>
       </c>
-      <c r="Y9" s="3">
-        <v>200</v>
-      </c>
       <c r="Z9" s="3">
         <v>200</v>
       </c>
       <c r="AA9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB9" s="3">
         <v>300</v>
       </c>
-      <c r="AB9" s="3">
-        <v>200</v>
-      </c>
       <c r="AC9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD9" s="3">
         <v>100</v>
       </c>
       <c r="AE9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -974,41 +984,41 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
       </c>
       <c r="G10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
-        <v>200</v>
-      </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
-        <v>200</v>
-      </c>
       <c r="Q10" s="3">
         <v>200</v>
       </c>
@@ -1031,13 +1041,13 @@
         <v>200</v>
       </c>
       <c r="X10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y10" s="3">
         <v>400</v>
       </c>
-      <c r="Y10" s="3">
-        <v>200</v>
-      </c>
       <c r="Z10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA10" s="3">
         <v>100</v>
@@ -1052,10 +1062,13 @@
         <v>100</v>
       </c>
       <c r="AE10" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,25 +1499,26 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
       </c>
       <c r="I17" s="3">
         <v>500</v>
@@ -1506,19 +1533,19 @@
         <v>500</v>
       </c>
       <c r="M17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
+        <v>400</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>500</v>
       </c>
       <c r="R17" s="3">
         <v>500</v>
@@ -1533,37 +1560,40 @@
         <v>500</v>
       </c>
       <c r="V17" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="W17" s="3">
         <v>600</v>
       </c>
       <c r="X17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y17" s="3">
         <v>900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>500</v>
       </c>
       <c r="AA17" s="3">
         <v>500</v>
       </c>
       <c r="AB17" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC17" s="3">
         <v>1300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>400</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>600</v>
       </c>
       <c r="AE17" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1577,82 +1607,85 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
-        <v>-100</v>
-      </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
-        <v>-100</v>
-      </c>
       <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-400</v>
       </c>
-      <c r="AE18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1696,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1773,31 +1807,34 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1856,14 +1893,17 @@
       <c r="AC21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-400</v>
       </c>
-      <c r="AE21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,61 +1991,64 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
@@ -2023,30 +2066,33 @@
         <v>-100</v>
       </c>
       <c r="Z23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-900</v>
       </c>
-      <c r="AC23" s="3">
-        <v>-100</v>
-      </c>
       <c r="AD23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-400</v>
       </c>
-      <c r="AE23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -2063,8 +2109,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
@@ -2078,8 +2124,8 @@
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,61 +2267,64 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
@@ -2290,78 +2342,81 @@
         <v>-100</v>
       </c>
       <c r="Z26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-900</v>
       </c>
-      <c r="AC26" s="3">
-        <v>-100</v>
-      </c>
       <c r="AD26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-400</v>
       </c>
-      <c r="AE26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
@@ -2379,25 +2434,28 @@
         <v>-100</v>
       </c>
       <c r="Z27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-900</v>
       </c>
-      <c r="AC27" s="3">
-        <v>-100</v>
-      </c>
       <c r="AD27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-400</v>
       </c>
-      <c r="AE27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2764,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2841,61 +2911,64 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
@@ -2913,25 +2986,28 @@
         <v>-100</v>
       </c>
       <c r="Z33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-900</v>
       </c>
-      <c r="AC33" s="3">
-        <v>-100</v>
-      </c>
       <c r="AD33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-400</v>
       </c>
-      <c r="AE33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,61 +3095,64 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
@@ -3091,119 +3170,125 @@
         <v>-100</v>
       </c>
       <c r="Z35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-900</v>
       </c>
-      <c r="AC35" s="3">
-        <v>-100</v>
-      </c>
       <c r="AD35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-400</v>
       </c>
-      <c r="AE35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3304,22 +3391,22 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,28 +3536,31 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
-        <v>200</v>
-      </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -3476,19 +3569,19 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -3512,42 +3605,45 @@
         <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Z43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC43" s="3">
         <v>100</v>
       </c>
       <c r="AD43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE43" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>200</v>
+      </c>
+      <c r="E44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
-        <v>200</v>
-      </c>
       <c r="F44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>300</v>
@@ -3556,13 +3652,13 @@
         <v>300</v>
       </c>
       <c r="I44" s="3">
+        <v>300</v>
+      </c>
+      <c r="J44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3">
-        <v>200</v>
-      </c>
       <c r="K44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>300</v>
@@ -3571,7 +3667,7 @@
         <v>300</v>
       </c>
       <c r="N44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
@@ -3592,10 +3688,10 @@
         <v>200</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V44" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W44" s="3">
         <v>200</v>
@@ -3604,16 +3700,16 @@
         <v>200</v>
       </c>
       <c r="Y44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z44" s="3">
         <v>300</v>
       </c>
       <c r="AA44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB44" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC44" s="3">
         <v>300</v>
@@ -3622,10 +3718,13 @@
         <v>300</v>
       </c>
       <c r="AE44" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3633,22 +3732,22 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3657,19 +3756,19 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3695,26 +3794,29 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-      <c r="Z45" s="3" t="s">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
       <c r="AC45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3725,58 +3827,58 @@
         <v>500</v>
       </c>
       <c r="F46" s="3">
+        <v>500</v>
+      </c>
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>600</v>
       </c>
       <c r="L46" s="3">
         <v>600</v>
       </c>
       <c r="M46" s="3">
+        <v>600</v>
+      </c>
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
-      </c>
-      <c r="P46" s="3">
-        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>400</v>
       </c>
       <c r="R46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
       </c>
       <c r="T46" s="3">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
         <v>400</v>
-      </c>
-      <c r="U46" s="3">
-        <v>300</v>
       </c>
       <c r="V46" s="3">
         <v>300</v>
       </c>
       <c r="W46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X46" s="3">
         <v>400</v>
@@ -3788,22 +3890,25 @@
         <v>400</v>
       </c>
       <c r="AA46" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AB46" s="3">
         <v>500</v>
       </c>
       <c r="AC46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AD46" s="3">
         <v>400</v>
       </c>
       <c r="AE46" s="3">
+        <v>400</v>
+      </c>
+      <c r="AF46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3971,17 +4079,20 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-      <c r="AC48" s="3" t="s">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD48" s="3">
-        <v>0</v>
-      </c>
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4297,12 +4417,12 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
       <c r="U52" s="3">
         <v>0</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,8 +4548,11 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4437,58 +4563,58 @@
         <v>500</v>
       </c>
       <c r="F54" s="3">
+        <v>500</v>
+      </c>
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>600</v>
       </c>
       <c r="L54" s="3">
         <v>600</v>
       </c>
       <c r="M54" s="3">
+        <v>600</v>
+      </c>
+      <c r="N54" s="3">
         <v>500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>400</v>
       </c>
       <c r="Q54" s="3">
         <v>400</v>
       </c>
       <c r="R54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
       </c>
       <c r="T54" s="3">
+        <v>300</v>
+      </c>
+      <c r="U54" s="3">
         <v>400</v>
-      </c>
-      <c r="U54" s="3">
-        <v>300</v>
       </c>
       <c r="V54" s="3">
         <v>300</v>
       </c>
       <c r="W54" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X54" s="3">
         <v>400</v>
@@ -4500,22 +4626,25 @@
         <v>400</v>
       </c>
       <c r="AA54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AB54" s="3">
         <v>500</v>
       </c>
       <c r="AC54" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AD54" s="3">
         <v>400</v>
       </c>
       <c r="AE54" s="3">
+        <v>400</v>
+      </c>
+      <c r="AF54" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4601,19 +4732,19 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -4634,13 +4765,13 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
       </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W57" s="3">
         <v>100</v>
@@ -4652,48 +4783,51 @@
         <v>100</v>
       </c>
       <c r="Z57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="3">
         <v>0</v>
       </c>
       <c r="AB57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="3">
         <v>100</v>
       </c>
       <c r="AD57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE57" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
-        <v>200</v>
-      </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
-        <v>200</v>
-      </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -4713,8 +4847,8 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
@@ -4731,8 +4865,8 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4758,8 +4892,11 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4793,12 +4930,12 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
@@ -4812,10 +4949,10 @@
         <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4826,12 +4963,12 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-      <c r="Y59" s="3" t="s">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z59" s="3">
-        <v>0</v>
-      </c>
       <c r="AA59" s="3">
         <v>0</v>
       </c>
@@ -4839,54 +4976,57 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
         <v>600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>500</v>
       </c>
-      <c r="AE59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
       </c>
       <c r="G60" s="3">
+        <v>300</v>
+      </c>
+      <c r="H60" s="3">
         <v>400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
@@ -4910,7 +5050,7 @@
         <v>200</v>
       </c>
       <c r="W60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X60" s="3">
         <v>100</v>
@@ -4919,25 +5059,28 @@
         <v>100</v>
       </c>
       <c r="Z60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA60" s="3">
         <v>0</v>
       </c>
       <c r="AB60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD60" s="3">
         <v>700</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>500</v>
       </c>
-      <c r="AE60" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5063,17 +5209,17 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
+      <c r="Q62" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
@@ -5090,8 +5236,8 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,46 +5536,49 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>300</v>
       </c>
       <c r="F66" s="3">
         <v>300</v>
       </c>
       <c r="G66" s="3">
+        <v>300</v>
+      </c>
+      <c r="H66" s="3">
         <v>400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>300</v>
       </c>
       <c r="I66" s="3">
         <v>300</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
@@ -5444,7 +5602,7 @@
         <v>200</v>
       </c>
       <c r="W66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X66" s="3">
         <v>100</v>
@@ -5453,25 +5611,28 @@
         <v>100</v>
       </c>
       <c r="Z66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA66" s="3">
         <v>0</v>
       </c>
       <c r="AB66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD66" s="3">
         <v>700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>500</v>
       </c>
-      <c r="AE66" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,13 +6030,16 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-23600</v>
+        <v>-23700</v>
       </c>
       <c r="E72" s="3">
         <v>-23600</v>
@@ -5877,22 +6051,22 @@
         <v>-23600</v>
       </c>
       <c r="H72" s="3">
-        <v>-23500</v>
+        <v>-23600</v>
       </c>
       <c r="I72" s="3">
         <v>-23500</v>
       </c>
       <c r="J72" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-23400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-23300</v>
       </c>
       <c r="L72" s="3">
         <v>-23300</v>
       </c>
       <c r="M72" s="3">
-        <v>-23400</v>
+        <v>-23300</v>
       </c>
       <c r="N72" s="3">
         <v>-23400</v>
@@ -5907,49 +6081,52 @@
         <v>-23400</v>
       </c>
       <c r="R72" s="3">
-        <v>-23300</v>
+        <v>-23400</v>
       </c>
       <c r="S72" s="3">
         <v>-23300</v>
       </c>
       <c r="T72" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="U72" s="3">
         <v>-23200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-23100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-23000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-22900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-22800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-22700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-22600</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>-22400</v>
       </c>
       <c r="AB72" s="3">
         <v>-22400</v>
       </c>
       <c r="AC72" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-21500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-21400</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-21000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,8 +6398,11 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6227,10 +6413,10 @@
         <v>200</v>
       </c>
       <c r="F76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H76" s="3">
         <v>200</v>
@@ -6239,26 +6425,26 @@
         <v>200</v>
       </c>
       <c r="J76" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K76" s="3">
         <v>400</v>
       </c>
       <c r="L76" s="3">
+        <v>400</v>
+      </c>
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>300</v>
       </c>
-      <c r="N76" s="3">
-        <v>200</v>
-      </c>
       <c r="O76" s="3">
+        <v>200</v>
+      </c>
+      <c r="P76" s="3">
         <v>300</v>
       </c>
-      <c r="P76" s="3">
-        <v>200</v>
-      </c>
       <c r="Q76" s="3">
         <v>200</v>
       </c>
@@ -6269,16 +6455,16 @@
         <v>200</v>
       </c>
       <c r="T76" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V76" s="3">
         <v>200</v>
       </c>
       <c r="W76" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X76" s="3">
         <v>300</v>
@@ -6287,25 +6473,28 @@
         <v>300</v>
       </c>
       <c r="Z76" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA76" s="3">
         <v>400</v>
       </c>
       <c r="AB76" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC76" s="3">
         <v>300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-200</v>
       </c>
-      <c r="AD76" s="3">
-        <v>-100</v>
-      </c>
       <c r="AE76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AF76" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,155 +6582,161 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
@@ -6559,25 +6754,28 @@
         <v>-100</v>
       </c>
       <c r="Z81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-900</v>
       </c>
-      <c r="AC81" s="3">
-        <v>-100</v>
-      </c>
       <c r="AD81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-400</v>
       </c>
-      <c r="AE81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6689,17 +6888,20 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-      <c r="AC83" s="3" t="s">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD83" s="3">
-        <v>0</v>
-      </c>
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7155,25 +7372,25 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -7185,16 +7402,16 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,13 +8253,16 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -8025,10 +8271,10 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -8037,16 +8283,16 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>-100</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8236,10 +8488,10 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
